--- a/deuChatbot/research_result/table_to_json(3000_400).xlsx
+++ b/deuChatbot/research_result/table_to_json(3000_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21093,6 +21093,6896 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기시험의 주요 요소들을 포함하고 있지만, 화지 크기와 시험 시간에 대한 구체적인 정보가 누락되어 있습니다. 예를 들어, "기초디자인"의 경우 화지 크기가 "켄트지 3절"이라고 명시되어 있지만, 응답에서는 "A4 크기"로 잘못 언급되었습니다. 또한, 시험 기간에 대한 정보가 명확하지 않다고 언급했으나, 원본 텍스트에는 시험 시간이 명시되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 화지 크기와 시험 시간에 대한 정보가 일치하지 않아 일관성이 떨어집니다. 또한, "시험기간"에 대한 언급이 원본 텍스트와 다르게 표현되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 잘 다루고 있으며, 원본 텍스트의 주요 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 화지 크기와 시험 시간에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 정보의 정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항이 잘못되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.859053425488724</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 중 하나를 선택하여 진행하며, 선택한 분야에 따라 다음과 같은 내용이 포함됩니다.
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **배점**: 700점 (70%)
+**준비물**:
+- 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+**실기주제**와 **화지크기**는 선택한 분야에 따라 달라집니다. 예를 들어 시각디자인의 경우 주제가 "기초디자인"일 때, 화지는 A4 크기를 사용합니다.
+**시험기간**은 정확히 언제인지 명시되어 있지 않으므로, 해당 학과에서 공지하는 일정을 따르는 것이 좋습니다. 
+더 자세한 정보나 준비에 필요한 추가 사항이 있다면, "https://ipsi. deu. ac. kr/main. do"를 참조하거나 관계된 학과의 웹사이트를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 다른 실기종목에 대한 정보가 명확하게 구분되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기종목에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 정보의 흐름이 일관되고 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이나 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8834998092400016</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+1. **기초디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+     - **주제A 예시**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - **주제B 예시**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+     - **주제A 예시**: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - **주제B 예시**: 바이러스, 자유, 여행, 계절, 꿈
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+이 정보는 디자인조형학과에서 실시하는 실기고사의 내용을 요약한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록이 누락되거나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 대회 목록과 설명이 원본과 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9066314288139171</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어국제대회 포함)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 인정을 받으면 경기지도학과에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 항목을 모두 포함하고 있습니다. 또한, 추첨 방식에 대한 설명도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 주제와 추첨 방식이 모두 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7823794811219341</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 추첨으로 결정합니다.
+주제A는 다음과 같습니다:
+- 잠자리
+- 무궁화
+- 피망 (파프리카)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B는 다음과 같습니다:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+당일에 추첨을 통해 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 결정합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실과 상반되는 내용을 포함하고 있습니다. 학생부종합 전형에 대한 정보는 제공되지만, 질문의 핵심인 학생부 교과 전형에 대한 정확한 정보는 잘못 전달되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 출결 점수가 학생부 교과 전형에 반영되지 않는다는 원문과 완전히 모순됩니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 학생부종합 전형에 대한 정보를 제공하지만, 질문의 핵심인 학생부 교과 전형에 대한 답변이 아니므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 학생부종합 전형에 대한 정보를 제공하며, 결석일수에 따른 점수 체계가 잘 정리되어 있습니다. 그러나 질문과의 관련성이 떨어져서 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에 대한 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 관련성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 질문의 맥락과 의미에 맞지 않으며, 학생부 교과 전형에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 질문과의 관련성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5962187201819271</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부종합(조기취업형계약학과전형)에서는 출결 상황이 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석일수: 120점
+- 3~6일 결석일수: 90점
+- 7~12일 결석일수: 60점
+- 13~20일 결석일수: 30점
+- 21일 이상 결석일수: 0점
+따라서 출결 점수가 학생부종합 평가에 영향을 미칩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원이 45명이라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 17명을 모집한다고 명시되어 있어, 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 모집 인원에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 국어국문학과의 모집 전형에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "일반 학생 전형으로는" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 모집 인원에 대한 잘못된 정보로 인해 완전한 일관성을 잃었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 요소가 있습니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.8512403068425762</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 45명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원이 정해지지 않았다고 주장하지만, 원본 텍스트에서는 총 28명의 신입생을 선발한다고 명확히 언급하고 있습니다. 따라서 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 모집 인원이 명확히 제시되었으나, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않지만, 관련된 정보(웹사이트 링크 및 문의 방법)를 포함하고 있습니다. 그러나 핵심 정보가 누락되어 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 일관되며, 문장 간의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 일관성이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있으며, 정보의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬우나, 정보의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6578838331245725</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 영어영문학과에서 다군 일반 학생 전형으로는 모집인원이 정해지지 않았습니다. 해당 정보가 제공되지 않았기 때문에 정확한 모집인원을 알 수 없습니다. 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 입학처에 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 무시하고 있으며, 나군 일반학생 전형의 모집 인원에 대한 정보를 제공하지 않고 있습니다. 원본 텍스트에 따르면 22명의 신입생을 선발한다고 명시되어 있으나, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 모집 인원에 대한 명확한 정보를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 주요 내용인 모집 인원에 대한 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본 텍스트의 정보와 관련이 없기 때문에 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트의 내용과 완전히 상반됩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 정보를 제대로 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 정보의 부재로 인해 의미 전달이 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 정보의 부족으로 인해 전체적인 이해도가 떨어집니다. 원본 텍스트의 핵심 정보를 제공하지 않기 때문에 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.571159472525178</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원에 대한 정보가 없습니다. 추가로 해당 정보를 확인하기 위해서는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있으며, 원본 텍스트의 정보와 일치합니다. 그러나 "이 점수들은 해당 등급에 맞춰 변환되어 적용됩니다."라는 문장은 원본 텍스트에 포함되어 있지 않은 추가 정보로, 약간의 부정확성을 초래합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 추가된 문장으로 인해 약간의 일관성 저하가 발생했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 영어 등급에 따른 점수를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "등급 1 :"과 같은 표현에서 공백이 불필요하게 포함되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 점수 목록이 명확하게 제시되어 있습니다. 그러나 추가된 문장이 약간의 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 점수 정보를 정확하게 반영하고 있지만, 추가된 문장으로 인해 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 추가된 문장으로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 문장이 원본 텍스트의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 문장이 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9329542805100743</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 해당 등급에 맞춰 변환되어 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 주장하고 있지만, 이는 원문에서 명확히 부정된 내용입니다. 원문에 따르면 예술고 출신자는 지원할 수 없으므로, 생성된 응답은 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 그 반대의 주장을 하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있습니다. 예술고 학생의 지원 자격에 대한 질문에 대한 답변을 제공하고 있으므로, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 정보 자체는 일관되게 제시되고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 내용을 포함하고 있습니다. 예술고 학생이 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 낮은 점수를 받을 수밖에 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있습니다. 예술고 학생의 지원 가능성에 대한 잘못된 주장을 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7288333891470841</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 지원 자격은 다음과 같습니다:
+1. **6년 과정**: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자입니다. 
+2. **12년 과정**: 농어촌(읍·면)지역 소재 학교에서 초·중·고등학교 전 교육과정을 이수하고, 거주한 자입니다.
+제출 서류는 다음과 같습니다:
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 자격과 서류를 갖추면 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 기록과 배점이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8963307538639507</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 데이터에서 추출되었습니다:
+- 등급: 4
+- 제자리 멀리뛰기(여): 218~221cm
+- 배점: 275
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 218~221cm이고, 이에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 12%라는 사실을 부정확하게 다루고 있습니다. 
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 관련성이 낮습니다. 
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 낮은 품질을 보이며, 사실성, 일관성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트의 핵심 정보를 제공하지 않기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6008263084709453</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 경기지도학과의 출결 반영 비율에 대한 내용은 직접적으로 확인할 수 없습니다. 다른 학과들에서는 결석일수와 반영점수의 관계가 명시되어 있지만, 경기지도학과의 경우 해당 정보가 포함되어 있지 않습니다.
+더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 방문하여 확인해 보시거나, 동의대학교에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 물리치료학과가 모집되지 않는다고 잘못된 정보를 제공하고 있으며, 이는 원본 텍스트와 완전히 상반됩니다. 원본 텍스트는 물리치료학과가 4명을 모집한다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트에서 물리치료학과가 모집한다고 했지만, 생성된 응답에서는 모집되지 않는다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보와 관련이 없습니다. 물리치료학과의 모집 인원에 대한 질문에 대해 전혀 다른 내용을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부정확성으로 인해 전체적인 의미 전달이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조는 괜찮지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 내부적으로는 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 물리치료학과가 모집된다는 사실을 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7654021554249977</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 모집되지 않습니다. 제공된 정보에서는 물리치료학과 관련된 내용이 없습니다. 다른 전형이나 학과에 대한 정보를 원하신다면 추가로 알려주세요.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락을 잘 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정과 관련된 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5222548413198579</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+추가로, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 "수능 최저기준 없음"이라는 사실을 언급하고 있으며, 이는 원문과 일치합니다. 그러나 "정확한 수능 점수 기준은 명시되어 있지 않습니다"라는 부분은 다소 모호하게 느껴질 수 있습니다. 원문에서 수능 최저 학력 기준이 없다고 명확히 언급되었기 때문에, 이 부분은 약간의 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "정확한 수능 점수 기준은 명시되어 있지 않습니다"라는 문구는 원문에서 제공된 정보와 다소 상충할 수 있습니다. 원문은 수능 최저 학력 기준이 없다고 명확히 말하고 있으므로, 이 부분에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있지만, 전반적인 유창성은 좋습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 "정확한 수능 점수 기준은 명시되어 있지 않습니다"라는 문구가 약간의 혼란을 줄 수 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "정확한 수능 점수 기준은 명시되어 있지 않습니다"라는 부분이 원문과의 정확성에서 약간의 차이를 보입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다. 전반적으로는 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문구가 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5149402629062189</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보는 제공된 자료에서 확인할 수 없습니다. 해당 과정의 수능 최저기준이 없음을 나타내는 "수능최저기준 없음"이라는 표현이 사용되었지만, 정확한 수능 점수 기준은 명시되어 있지 않습니다.
+더 자세한 정보를 얻으려면, 동의대학교의 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 입학규정을 확인하거나, 학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트에 있는 모든 학과를 정확하게 나열하고 있으며, 추가적인 정보도 제공하고 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 의미적으로 적절합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.686843179192104</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)"가 있습니다.
+하지만 주의할 점은 "라이프융합학부"는 2024년도에 신설되었지만 세부 전공들이 정확히 어떤 것인지 명시되어 있지 않으므로, 이 부분에 대해 더 자세한 정보를 원하시면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 명확한 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그에 대한 부정확한 정보를 제공합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 답변을 제공하지 않으며, 관련성이 낮습니다. 원본 텍스트의 정보에 대한 직접적인 언급이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 정보의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6653357838047194</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)에 대한 전형요소 반영비율에 대한 명확한 데이터가 없습니다. 따라서, 해당 정보를 찾기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 자세한 내용을 확인해보시거나, 동의대학교 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 수능 가산점을 적용한다고 명시하고 있지만, 생성된 응답에서는 인문사회과학대학의 영어영문학과와 광고홍보학과를 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있어 일관성이 없습니다. 원본 텍스트의 정보와 생성된 응답의 정보가 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 대한 답변으로는 관련성이 낮습니다. 원본 텍스트의 내용과는 관련이 있지만, 잘못된 정보를 제공하고 있어 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절한 부분이 있으며, 원본 텍스트의 맥락과 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7205226011624564</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과들은 주로 인문사회과학대학의 영어영문학과와 광고홍보학과 등이 있습니다. 예를 들어, 영어영문학과에서는 지원자의 영어 실력에 따라 가산점이 부여되며, 광고홍보학과에서도 수능 점수에 가산점을 주는 경우가 있습니다.
+상세한 정보는 각 학과의 모집요강을 확인하시거나, 동의대학교 입학처 웹사이트를 참조해 보시면 더 정확한 내용을 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 사실을 언급하지 않고, 반영 과목에 대한 구체적인 내용을 추가했습니다. 그러나 원본 텍스트의 핵심 정보인 "수능 성적을 100% 반영"이라는 사실이 누락되어 있어 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 반영 과목에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트의 핵심 내용이 누락되어 있어 일관성 점수를 낮게 평가했습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실인 "수능 성적을 100% 반영"이라는 내용이 누락되어 있어 정확성 점수를 낮게 평가했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 핵심 정보의 누락으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 수능 성적 반영 방법에 대한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.6963683036153521</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다.
+- **반영과목**: 전 모집단위 (한의예과 제외)에 대해 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이 반영됩니다. 한의예과는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목이 반영됩니다.
+이는 2023년도와 비교했을 때 반영과목 수가 증가한 것을 확인할 수 있습니다. 2024년도에는 진로선택과목이 추가되어 반영과목의 종류가 다양해졌습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 완전히 부정하고 있으며, 실제로는 2024년 1월 16일(화)로 명시되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 날짜를 명확히 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 공식 웹사이트를 언급하고 있지만, 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 받았으며, 전반적으로 매우 낮은 품질을 나타냅니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절하며, 원본 텍스트의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하게 작성되었지만, 내용의 부정확성으로 인해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6361820718676676</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 2024학년도 가군 실기고사 날짜에 대한 내용이 없습니다. 정확한 날짜를 확인하려면 동의대학교의 공식 웹사이트나 입학처에 직접 문의해 주세요. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트로 이동하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제외되는 학과 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련된 추가 정보도 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.8187271133769221</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외됩니다.
+이 정보는 "전형요소 반영비율" 항목에서 확인할 수 있으며, 해당 항목에 나군 수능(일반학생전형)의 모집단위와 관련된 내용을 찾아볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 모든 정보를 포함하고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.7964598951310818</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 관련 정보는 다음과 같습니다:
+- **전형 유형**: 수능 위주
+- **전형명**: 다군 수능(일반학생전형) 전 모집단위
+- **모집 인원**: 180명
+- **사정 단계**: 일괄 합산
+- **전형요소 반영비율(%)**:
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 0%
+  - 면접: 0%
+  - 실기: 0%
+  - 수능: 100%
+- **수능최저기준**: 수능 최저 기준 없음
+따라서, 다군 전형에서는 수능 점수가 유일한 평가 요소로 사용되며, 최저 기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 내용을 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 일관되고 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이나 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8578340856472675</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 아동학과 (原来是保育·家政咨询学系)
+2. 금융경영학과 (原来是经济金融保险学系)
+3. 경영정보학과, e비즈니스학과 (原来是信息经营管理学系(经营信息学,e商务学))
+4. 부동산자산경영학부(부동산투자학, 부동산개발경영학) (原来是房地产金融·资产经营管理学系)
+5. 기계공학과, 로봇자동화공학과, 자동차공학과 (原来是机械汽车机器人部品工学系)
+6. 신소재공학과, 고분자나노공학과 (原来是新材料工学系)
+7. 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과 (原来是建筑工学系)
+8. 화학공학과, 환경공학과, 응용화학과 (原来是化学环境工学系)
+9. 의생명공학과, 바이오의약공학과, 식품공학과 (原来是生物应用工学系)
+10. 인간공학과, 제품디자인공학과 (原来是设计工程学系)
+11. 산업경영빅데이터공학과 (原来是产业融合信息技术学系)
+12. 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) (原来是创意软件工学系)
+13. 전기공학과, 전자공학과 (原来是电气电子通信工学系)
+14. 음악학과(클래식, 실용음악, 뉴미디어작곡) (原来是音乐学系)
+위와 같이 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수 및 홈페이지 링크)를 제공하고 있습니다. 그러나 링크의 정확성은 확인할 수 없으므로 완전한 점수를 주기에는 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간을 정확히 전달하고 있습니다. 다만, 추가 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일과 시간을 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 마감일과 시간은 정확하지만, 제공된 링크의 유효성에 대한 확인이 필요하여 완전한 정확성을 보장할 수 없습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받았습니다. 그러나 링크의 유효성 문제로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7390210901309522</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 접수 마감 시간은 18시까지이며, 원서접수는 인터넷을 통해 진행할 수 있습니다. 자세한 정보는 [입학안내 홈페이지](http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 새로운 학과에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 서로 다른 내용을 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용이 부적절하여 전체적인 이해에 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6202982169350395</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **심리학과 (신설)** - 학과 신설로 인해 해당 전형이 처음으로 등장하였습니다.
+2. **스마트항만물류학과 (신설)** - 이전에는 없던 전공이 신설되어 해당 전형이 등장하였습니다.
+3. **창업투자경영학과 (신설)** - 새로운 학과로 인해 해당 전형이 처음으로 등장하였습니다.
+4. **라이프융합학부 (신설)(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)** - 신설된 학부에 따른 새로운 전형입니다.
+위와 같은 변화가 있는 전형들이 2024학년도 동의대학교에서 등장하였습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다. 추가적인 세부 정보도 정확하게 제공되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 실기 비중에 대한 정보가 반복적으로 확인되며, 다른 세부 사항도 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기 비중에 대한 질문에 대한 직접적인 답변을 제공합니다. 추가적인 세부 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄럽습니다. 읽기 쉽고 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 모든 수치와 세부 사항이 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8217346924443152</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 70%의 비중을 차지합니다.
+상세 정보는 다음과 같습니다:
+- 전형명: 가군 실기/실적(일반학생전형)
+- 레저스포츠학과, 태권도학과 제외
+- 모집 인원: 11명
+- 사정 단계: 일괄 합산
+- 전형요소 반영비율:
+    - 학생부 교과: 0%
+    - 출결: 0%
+    - 서류: 0%
+    - 면접: 0%
+    - 실기: 70%
+    - 수능: 30%
+따라서, 동의대학교 2024학년도 가군 실기/실적 전형에서 실기는 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8588389294676019</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세부 전공들은 각각의 특성과 목적에 따라 학생들에게 다양한 경험과 지식을 제공하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'가 언급되지 않았습니다. 또한, 원본 텍스트에 명시된 '체육학과'도 누락되었습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있습니다. '체육학과'가 빠지고 '태권도학과'가 추가되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있지만, 원본 텍스트와는 다른 학과를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 읽을 수 있지만, 중간에 중국어가 포함되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다. 문장 구조는 괜찮지만, 언어의 일관성이 부족합니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 논리적인 흐름이 부족합니다. 한국어와 중국어가 섞여 있어 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. '태권도학과'는 원본에 없고, '체육학과'는 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히, 다른 언어가 포함되어 있어 의미 전달이 적절하지 않습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 이해하기 어렵습니다. 한국어 사용자에게는 혼란을 줄 수 있는 요소가 많습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6662929576195699</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 **레저스포츠학과**와 **태권도학과**입니다.
+- 레저스포츠학과: 2024. 01. 16.(화)에 실기고사를 치릅니다.
+- 태권도학과:同样是关于东义大学2024学年的加群，需要参加实操考试的学科有：
+- 娱乐体育学：在2024年1月16日（星期二）进行实操考试。
+如果有其他问题或需要更多信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형에 지원 가능한 학과 목록을 잘못 제시하고 있습니다. 원본 텍스트에 명시된 학과(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)와는 전혀 다른 학과들이 나열되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 언급된 학과와 생성된 응답의 학과가 서로 다르기 때문에, 정보의 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 잘못된 학과 목록으로 인해 관련성이 낮습니다. 원본 텍스트의 핵심 주제를 제대로 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질은 낮아질 수 있습니다.
+5. Coherence Score (3-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어지는 응답입니다.
+8. Semantic Appropriateness Score (2-5): 2
+   - 설명: 생성된 응답은 주제에 대한 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적 적절성 점수는 낮습니다.
+9. Understandability Score (4-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6659960671398464</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'에 지원 가능한 학과는 다음과 같습니다:
+1. 경기지도학과
+2. 금융경영학과
+3. 재무부동산학과
+4. 무역학과 (교직)
+5. 유통물류학과
+6. 경영학과 (교직)
+7. 회계학과 (교직)
+8. 국제관광경영학과 (교직)
+이러한 학과들은 실기/실적 위주 전형에 지원 가능하며, 각 학과의 모집요강을 확인하시면 자세한 정보를 얻으실 수 있습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8976068141698189</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 전공들은 학생들이 미래 산업 트렌드에 맞춘 다양한 분야에서의 경쟁력을 갖추도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있습니다. 또한, 동의대의 특정 전형에 대한 정보가 추가되었으나, 원문에 명시된 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 농어촌학생전형에 대한 언급이 없고, 동의대의 전형에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원문에서 강조된 내용이 누락되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로 관련된 정보를 제공하고 있지만, 원문에서 언급된 농어촌학생전형에 대한 정보가 빠져 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결성이 약간 떨어져 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서 중요한 세부사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 일치성 및 관련성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원문과의 맥락에서 일부 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 일부 문장이 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5595100201485249</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请동의大学的一般学生入学类型。
+你在特殊目的高中（如科学高中、国际高中、外语高中等）的学生是可以申请东义大学的「가군」（一般学生入学类型）。但是，请注意不同专业的具体招生名额和要求可能会有所不同。建议你查看具体的招生简章或直接访问东义大学官网以获取最准确的信息。
+如果需要更多信息，可以参考以下链接进行查询：https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 디자인조형학과가 가장 많이 모집한다고 잘못 기술하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원과는 전혀 다른 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 제공하는 정확한 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문과의 불일치로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6189196038167551</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 "디자인조형학과 (시각디자인, 산업디자인, 공예디자인)"입니다. 이 학과는 정원 내 모집 인원이 75명으로 가장 많은 수를 모집하고 있습니다.
+추가로, 나군 전형에서 모집 인원이 많은 몇 가지 학과들은 다음과 같습니다:
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) : 75명
+- 체육학과 교직 : 55명
+- 레저스포츠학과 : 45명
+이러한 정보를 바탕으로 가장 많은 인원을 모집하는 학과는 "디자인조형학과 (시각디자인, 산업디자인, 공예디자인)"입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 응답에서는 지원이 가능하다고 주장하고 있으며, 이는 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 이를 반박하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 원문에서 언급된 내용과 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하고 있지만, 원문과의 불일치로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.7142605415385185</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 농어촌학생전형으로 지원할 수 있습니다. 
+특수목적고등학교 중에서 과학고, 국제고, 외국어고는 농어촌학생전형으로 지원이 가능하지만, 예술고와 체육고는 지원이 불가능합니다.
+따라서, 특수목적고등학교 학생이라면 다음과 같이 지원할 수 있습니다:
+- 과학고, 국제고, 외국어고: 농어촌학생전형으로 지원 가능
+- 예술고, 체육고: 농어촌학생전형으로 지원 불가능
+따라서, 만약 과학고, 국제고 또는 외국어고에 속한다면 농어촌학생전형으로 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 누락에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8630410243026031</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 제공된 정보로는 확인할 수 없습니다. 해당 정보가 포함되어 있지 않거나, 데이터가 누락되었기 때문입니다.
+만약에 이 정보를 찾고자 한다면, 관련 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi. deu. ac. kr/main. do)에서 확인해 보시는 것이 좋을 것 같습니다. 해당 사이트에서는 최신의 모집 및 합격 정보를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 없다는 점을 잘 전달하고 있습니다. 그러나 "제공된 데이터에서 확인할 수 없다"는 표현은 원본의 "포함되어 있지 않다"는 표현과 약간의 차이가 있어, 완벽한 일치는 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "자세한 지원자 성적 정보가 포함된 부분을 찾아보아야 한다"는 추가적인 정보는 원본 텍스트에 명시되어 있지 않으므로, 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 정보가 없다는 점을 명확히 하고, 추가적인 조언을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "해당 정보를 찾기 위해서는" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 약간의 중복된 표현이 있어 완벽한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정보의 정확성은 높습니다. 그러나 원본의 내용을 약간 변형하여 표현하고 있어 완벽한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "자세한 지원자 성적 정보가 포함된 부분을 찾아보아야 한다"는 표현은 원본의 의미와 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현에서 약간의 혼란을 줄 수 있는 부분이 있어 완벽한 이해 가능성은 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.6565125664921045</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초 합격자 평균 성적 정보는 제공된 데이터에서 확인할 수 없습니다. 해당 정보를 찾기 위해서는 "소프트웨어공학부"에 대한 자세한 지원자 성적 정보가 포함된 부분을 찾아보아야 합니다. 만약 특정 단과대학이나 모집단위의 최초 합격자 평균 성적을 알고 싶다면, 해당 정보를 직접 확인해 보시기 바랍니다. 필요한 정보가 더 있으시다면 알려주세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 대부분의 세부 사항이 정확하게 반영되어 있습니다. 그러나 일부 추가 정보(등록금 납부 및 등록 일정 등)가 포함되어 있어 원본 텍스트와 완전히 일치하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가적인 세부 사항이 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 최초 합격자 등록 일정이 원본 텍스트에 명시되어 있지 않으므로 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 모든 주요 정보를 다루고 있으며, 원본 텍스트의 핵심 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보로 인해 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 정보로 인해 일부 세부 사항이 정확하지 않을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.7009112187893185</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024학년도 입시의 합격자 발표 일정은 다음과 같습니다.
+1. **최초 합격자 발표 및 등록금 납부**
+   - **일정**: 2024. 02. 02.(금) 14:00
+   - **내용**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 합격자 발표 및 등록금 납부
+   - **비고**: 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+2. **최초 합격자 등록**
+   - **일정**: 2024. 02. 07.(수) ~ 02. 13.(화)
+   - **내용**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 합격자 등록
+   - **비고**: 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행입니다.
+3. **충원 합격자 발표 및 등록**
+   - **1차 충원 합격자 발표**
+     - **일정**: 2024. 02. 14.(수) 09:00
+     - **내용**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 충원 합격자 1차 발표 및 등록
+   - **1차 충원 합격자 등록**
+     - **일정**: 2024. 02. 14.(수) 09:00 ~ 16:00
+   - **2차 충원 합격자 발표**
+     - **일정**: 2024. 02. 15.(목) 09:00
+   - **2차 충원 합격자 등록**
+     - **일정**: 2024. 02. 15.(목) 09:00 ~ 16:00
+4. **충원 합격자 발표 및 등록 (3차 이후)**
+   - **일정**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - **내용**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 충원 합격자 3차 이후 발표 및 등록
+5. **개별 전화 통보**
+   - **일정**: 개별 전화 통보 시 안내
+   - **내용**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 충원 합격자 3차 이후 발표 및 등록
+이상의 일정을 참고하시면 됩니다. 자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다. https://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사의 정확한 날짜와 시간이 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 "2024. 01. 20.(토)"라는 날짜가 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 면접고사의 날짜를 명확히 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 보이지만, 원본 텍스트의 핵심 정보를 무시하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있습니다. 원본의 정보를 무시하고 다른 방향으로 설명하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3715269479086115</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 정확한 날짜와 시간이 포함되어 있지 않습니다. 면접고사의 날짜와 시간은 일반적으로 입학사정관이나 관련 홈페이지를 통해 공지됩니다. 따라서, 면접일정을 확인하려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 자세한 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 반영하고 있지만, "2024학년도 한의예과의 최저학력 기준은 제공된 정보에서 확인할 수 없습니다."라는 문구는 다소 모호하게 느껴질 수 있습니다. 일반적으로 한의예과는 수능 최저학력 기준이 없을 수도 있다는 언급은 정확하지만, 정보의 출처가 명확하지 않아 약간의 불확실성을 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 동의대 한의예과의 최저학력 기준이 없다는 점에서 일관성을 유지하고 있지만, "2024학년도 한의예과의 최저학력 기준은 제공된 정보에서 확인할 수 없습니다."라는 문장은 다소 모순적일 수 있습니다. 최저학력 기준이 없다는 점과 관련하여 혼란을 줄 수 있는 표현이 포함되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주제와 관련이 깊으며, 동의대 한의예과의 최저학력 기준에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 정보 제공을 위한 링크도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, "제공된 정보에서 확인할 수 없습니다."라는 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 약간의 모호함이 있어 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있지만, "2024학년도 한의예과의 최저학력 기준은 제공된 정보에서 확인할 수 없습니다."라는 문구는 다소 부정확하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받고 있습니다. 그러나 약간의 일관성 문제로 인해 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 일부 표현이 다소 모호하게 느껴질 수 있어 완전한 적절성에는 미치지 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문구가 다소 복잡하게 느껴질 수 있어 완전한 명확성에는 부족합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5898538322515704</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도 한의예과의 최저학력 기준은 제공된 정보에서 확인할 수 없습니다. 일반적으로 한의예과는 수능 최저학력 기준이 없을 수도 있지만, 정확한 최저학력 기준을 파악하기 위해서는 대학 입시 홈페이지나 공식 문서를 참조해야 합니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)로 이동하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "대부분의 경우"라는 표현은 다소 모호하게 느껴질 수 있으며, 특정 전형에 따라 다르게 적용될 수 있다는 점은 추가적인 정보로서 유용하지만, 원문에서 명시된 사실과는 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "대부분의 경우"라는 표현은 원문에서의 명확한 진술과 일치하지 않습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 수능 최저학력 기준에 대한 정보를 명확하게 제공하고 있으며, 추가적인 예시와 링크도 포함되어 있어 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 점이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 "대부분의 경우"라는 표현이 혼란을 줄 수 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있습니다. 그러나 "대부분의 경우"라는 표현은 정확성을 약간 저하시킬 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주고 있습니다. 사실성, 관련성, 유창성 등에서 긍정적인 평가를 받을 수 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 추가적인 정보도 적절하게 포함되어 있습니다. 그러나 "대부분의 경우"라는 표현이 의미적으로 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있는 점이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5028118427291679</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도에 정시전형으로 지원할 때, 대부분의 경우 수능 최저학력 기준이 없습니다. 예를 들어, "가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)", "나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외) 한의예과(수학(미적분/기하),수학(확률과 통계))" 등은 수능 최저학력 기준이 없음을 나타내고 있습니다.
+하지만 특정 전형에 따라 다르게 적용될 수 있으므로, 정시전형을 지원할 때는 해당 전형의 공지사항이나 입학처 웹사이트를 확인하여 확실한 정보를 얻는 것이 좋습니다. 필요하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항을 완전히 반영하지 않습니다. 특히, 3차 충원 합격자 발표와 등록 시간에 대한 정보가 잘못된 부분이 있습니다. 원본 텍스트에서는 1차와 2차 발표 일정이 명시되어 있으나, 생성된 응답에서는 3차 발표만 언급되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 발표 일정에 대한 정보가 불완전하여 일관성이 떨어집니다. 특히, 1차와 2차 발표 일정이 누락되어 있어 전체적인 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 모든 발표 일정이 포함되지 않아 다소 부족합니다. 그러나 주제에 대한 언급은 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 발표 일정의 누락으로 인해 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부 사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 누락과 일관성 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 모든 세부 사항이 포함되지 않아 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8738350228972157</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자는 2024년 2월 15일(목)부터 순차적으로 발표됩니다. 구체적인 일정은 다음과 같습니다:
+- 2024. 02. 15.(목) 09:00 - 3차 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00~16:00 - 3차 충원 합격자 등록
+- 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 - 4차 충원 합격자 발표 및 등록
+이후에 개별 전화 통보를 통해 최종 합격자를 안내합니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정확한 정보를 제공하지 않고 있으며, 실제 일정이 명시된 원본 텍스트와 상반되는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공하고 있습니다. 원본 텍스트에는 명확한 날짜가 제시되어 있지만, 생성된 응답은 그 날짜가 명시되어 있지 않다고 주장하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다. 따라서 점수가 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 정보를 포함하고 있습니다. 따라서 의미적 적절성이 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부적절성으로 인해 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3913301120249681</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표의 정확한 날짜가 명시되어 있지 않습니다. 추가합격자 발표와 관련된 자세한 일정은 대학 입학처 웹사이트를 방문하여 확인하시거나, 학교 관계자에게 문의하시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 입학처 웹사이트에 접속하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집에 대한 정보를 제공하지 않고 있으며, 원본 텍스트의 내용을 왜곡하고 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명시하고 있지만, 생성된 응답은 그에 대한 언급이 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본의 내용을 반영하지 않고 있습니다. 원본 텍스트는 추가 모집이 있을 것이라고 명시하고 있지만, 생성된 응답은 그와 반대되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 핵심 정보를 놓치고 있습니다. 원본 텍스트의 주요 내용인 추가 모집에 대한 정보가 누락되어 있어, 관련성은 있지만 불완전합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트의 내용을 반영하지 않기 때문에, 내용의 유창성은 높지만 정보의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 원본의 핵심 내용을 반영하지 않기 때문에 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보를 누락하고 있습니다. 원본 텍스트의 사실을 왜곡하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 맞지 않습니다. 원본의 의미를 제대로 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트의 핵심 내용을 반영하지 않기 때문에 전체적인 이해는 제한적입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4848607071541022</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 추가 모집에 대한 내용이 없습니다. 각 단과대학 및 모집단위별 정원 내 모집인원은 위에서 나열되었습니다. 만약 추가 모집에 대한 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보의 일부를 포함하고 있지만, 모집인원과 지원자격에 대한 세부사항이 잘못되었거나 누락되었습니다. 예를 들어, 모집인원에 대한 정보가 잘못 기재되어 있으며, 지원자격에 대한 설명도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 모집단위 및 모집인원에 대한 정보가 상충합니다. 또한, 지원자격에 대한 설명이 원본과 다르게 기술되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 일부 내용은 원본 텍스트와 관련이 적거나 불필요한 세부사항이 포함되어 있습니다. 그러나 전반적으로 주제와 관련된 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서는 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 정보의 흐름이 매끄럽지 않으며 일부 부분에서 논리적 연결이 부족합니다. 특히, 면접 평가와 동점자 처리 기준에 대한 설명이 원본과의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 일치하지 않으며, 특히 모집인원과 지원자격에 대한 정보가 부정확합니다. 이러한 부정확성은 응답의 신뢰성을 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 부족함을 보이며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 응답의 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 일부 정보는 원본의 의미와 다르게 해석될 수 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 주요 내용을 전달하는 데 큰 어려움이 없습니다. 그러나 일부 세부사항에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7048427935548262</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 다양한 학력과 경력을 가진 성인 학생들을 대상으로 하는 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 예를 들어, 미래융합대학의 라이프융합학부에서는 6년 과정과 12년 과정으로 나뉘며 각각 정원 외로 11명과 23명을 모집합니다.
+2. **지원자격**:
+   - 산업체 적용 범위: 국가나 지방자치단체, 공공기관, 상시근로자 5인 이상 사업체, 4대 보험 중 하나 이상 가입 사업체 등이 지원 자격에 해당합니다.
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다.
+3. **전형요소 반영비율**:
+   - 학생부종합 평가에서 서류와 면접의 비중은 각각 70%와 30%입니다.
+4. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부를 제출합니다.
+   - 검정고시 출신자: 검정고시 합격증서, 성적증명서 등을 제출합니다.
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서와 성적증명서를 제출해야 합니다.
+5. **면접평가**:
+   - 개별면접으로 진행되며, 1인당 10분 이내입니다.
+   - 학업역량과 전공적합성에 대한 질문이 주로 이루어집니다.
+6. **동점자 처리기준**:
+   - 면접고사 성적이 상위자, 서류평가 공동체역량 영역 성적이 상위자, 서류평가 전공적합성 영역 성적이 상위자를 우선적으로 선발합니다.
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 정보가 아닌 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 모든 평가 기준에서 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 일치하지 않으며, 맥락에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6645001464964017</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격을 갖춘 지원자는 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 실기고사 준비에 대한 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 언급이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보만을 제공하는 반면, 생성된 응답은 실기고사 준비에 대한 전반적인 설명을 하고 있어 서로 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보에 국한되어 있지만, 생성된 응답은 실기고사 준비 방법에 대한 설명으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 정보 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 각 항목이 나열되어 있지만, 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사 준비에 대한 정보는 원본 텍스트에서 요구하는 정보와 관련이 없습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두 원본 텍스트와의 관계에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트가 제공하는 정보와는 다른 주제를 다루고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 주제가 원본 텍스트와 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4665374925710679</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 모집단위에 따라 다르게 준비되어야 합니다. 예를 들어, "시각디자인, 산업디자인, 공예디자인"의 경우 기초디자인과 사고의 전환을 준비해야 하며, 이는 700점(70%)으로 평가됩니다.
+따라서 실기고사를 가기 위해서는:
+1. 모집단위를 확인합니다.
+2. 해당 모집단위에 따른 실기종목을 선택합니다.
+3. 준비물과 주제를 숙지합니다.
+4. 화지크기를 확인하고 시간을 관리합니다.
+예를 들어, "디자인조형학과"의 경우:
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목(택1): 기초디자인, 사고의 전환
+- 종목별 배점(비율): 700점(70%)
+따라서 디자인조형학과를 지원하는 학생은 이에 맞는 준비물을 가져가야 합니다. 자세한 내용은 해당 모집단위의 공지사항이나 입학처 웹사이트를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 체육학과와 디자인조형학과의 차이점에 대한 언급이 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 정보는 실기고사 대기실 및 입실시간에 대한 것이므로, 이와 관련된 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 체육학과의 실기고사 준비 절차에 대한 정보가 포함되어 있지만, 원본 텍스트의 핵심 정보인 입실시간에 대한 언급이 없습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 체육학과의 실기고사 준비에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 입실시간에 대한 정보와는 관련성이 떨어집니다. 그러나 실기고사와 관련된 정보이므로 어느 정도의 관련성은 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 체육학과의 실기고사 준비 절차에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 정보가 분리되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 정보인 실기고사 대기실 및 입실시간에 대한 정확한 정보를 제공하지 않으며, 체육학과와 디자인조형학과의 차이에 대한 언급이 사실과 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 체육학과의 실기고사와 관련된 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3961614541094987</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 디자인조형학과와는 다른 모집단위에 해당됩니다. 체육학과의 경우, 실기고사 관련 정보가 제공된 부분에서는 특별히 언급되지 않았습니다.
+따라서, 체육학과의 실기고사 준비를 위해서는 다음과 같은 절차를 따르시면 됩니다:
+1. **모집단위 확인**: 체육학과의 모집단위와 관련된 실기고사 정보를 확인하세요.
+2. **준비물 확인**: 필요 물품을 미리 준비하세요 (예: 운동화, 운동복 등).
+3. **실기종목 확인**: 실기종목에 대한 자세한 내용을 확인하세요.
+만약 체육학과의 실기고사 관련 정보가 제공되지 않았다면, 해당 대학의 입학처 웹사이트나 학부 홈페이지를 참조하거나 직접 연락하여 확인하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실을 완전히 반대하는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 주제를 흐리고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 응답의 일관성을 해치고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 전화 통보에 대한 잘못된 정보가 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6495248795467943</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개별 조회를 통해 결과를 확인해야 합니다. 이후에 입학관리팀에서 전화로 안내를 주실 것으로 예상됩니다.
+만약 자세한 일정이나 추가적인 정보가 필요하시다면, 공식 웹사이트인 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않고 있으며, '自主招生结果'라는 표현은 '수시모집 결과'와 다르게 해석될 수 있습니다. 또한, 원본 텍스트는 한국어로 작성되었으나, 생성된 응답은 중국어로 되어 있어 정보 전달에 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정 정보를 제공하지 않음을 명확히 하고 있지만, 생성된 응답은 추가적인 세부정보를 제공하는 것처럼 보입니다. 이는 원본의 메시지와 상충됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 언어와 표현 방식이 다르기 때문에 관련성이 떨어집니다. 원본 텍스트의 핵심 정보는 수시모집 결과에 대한 부재인데, 생성된 응답은 그에 대한 다른 정보를 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 언어적 차이로 인해 흐름이 매끄럽지 않을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본의 메시지를 명확히 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. '自主招生结果'라는 표현은 원본의 '수시모집 결과'와 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않습니다. 원본의 주제를 벗어나 다른 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 그러나 문장 자체는 명확하게 구성되어 있어 어느 정도 이해 가능성은 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7054740441085442</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有提到关于2023学年警察行政学系的自主招生结果。如果您需要了解这方面的详细信息，建议访问德宇大学主页（https://ipsi. deu.ac.kr/main.do）查询最新公告或直接联系学校招生办公室获取准确数据。</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문 질문에 대한 직접적인 답변이 아니며, 관련된 전형에 대한 정보를 제공하지만, 원문에서 요구하는 정보와는 다릅니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있어 정확성이 매우 낮습니다. 수능 응시가 필수라는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와는 다르게 해석될 수 있는 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 원문의 맥락을 벗어나 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.542477295820496</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서 수능을 응시하지 않아도 지원이 가능한 전형들이 있습니다. 주로 평생학습자전형, 성인학습자전형, 재직자전형 등이 해당됩니다.
+- **학생부종합(평생학습자전형)**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자에게 지원 가능합니다.
+- **학생부종합(성인학습자(정원내·외)전형)**: 만 30세 이상의 자가 지원할 수 있습니다. 이 전형에서는 고교 졸업(예정)자가 아닌 성인 학습자를 대상으로 합니다.
+- **학생부종합(재직자전형)**: 재직 중인 직원이 지원할 수 있으며, 산업체 적용 범위와 재직기간 산정 기준 등을 참고해야 합니다.
+따라서 수능을 응시하지 않아도 위의 전형들을 통해 지원 가능합니다. 하지만 각 전형별로 제출 서류 및 평가 기준이 다르므로 자세한 내용은 공지사항이나 대학 홈페이지를 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 특히, "일반 정시모집으로는 지원이 불가능하다"는 주장은 원문과 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답에서는 정시모집에 대한 지원이 불가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주된 질문에 대한 답변이 아닌 다른 전형에 대한 정보로 흐르고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 정시 지원 가능성에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않은 정보가 포함되어 있어 원문의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 일관성이 부족하여 전체적으로 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5852732770873014</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년 대학입시에서는 고등학교 졸업 후 3년 이상 경과한 경우 재직자전형 또는 성인학습자전형을 통해 지원할 수 있습니다. 하지만 일반 정시모집으로는 지원이 불가능합니다.
+따라서, 다음과 같은 방법으로 지원 가능합니다:
+1. **재직자전형**: 근로기준법에 따른 상시근로자 5인 이상 사업체에서 재직 중이며 총 재직기간이 3년 이상인 경우 지원할 수 있습니다.
+2. **성인학습자전형**: 근로기준법에 따른 상시근로자 5인 이상 사업체에서 재직 중이며, 총 재직기간이 3년 이상인 경우 지원할 수 있습니다.
+추가적으로, 정확한 자격 요건과 서류 제출 방법은 해당 대학의 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. 더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8147744713353207</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024년 1월 2일)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024년 1월 3일 ~ 6일)
+   - 마감일은 18시까지입니다.
+   - 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출** (2024년 1월 3일 ~ 12일)
+   - 마감일은 17시까지입니다.
+   - 서류 제출 대상에 따라 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)** (2024년 1월 16일)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)** (2024년 1월 17일)
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부** (2024년 2월 2일)
+   - &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 합격자는 14시부터 홈페이지에서 개별 조회 가능합니다.
+   - 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **합격자 발표 및 등록금 납부 (최초 합격자)** (2024년 2월 7일 ~ 13일)
+   - 이 기간 동안 학교 지정은행에서 등록금을 납부해야 합니다.
+8. **합격자 발표 및 등록금 납부 (충원 합격자)** (2024년 2월 14일 ~ 15일)
+   - 충원 합격자는 이 기간 동안 홈페이지에서 개별 조회하고 등록금을 납부해야 합니다.
+9. **합격자 발표 및 등록금 납부 (3차 이후)** (2024년 2월 15일 ~ 20일)
+   - 충원 합격자는 이 기간 동안 홈페이지에서 개별 조회하고 등록금을 납부해야 합니다.
+이 일정은 일반적으로 정시 모집의 주요 단계를 포함하며, 각 단계마다 자세한 안내가 제공됩니다. 필요하다면 [https://ipsi. deu. ac. kr/ main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 더 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 항목이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8994483861656815</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024년 1월 2일)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024년 1월 3일 ~ 6일)
+   - 마감일은 18시까지입니다.
+   - 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출** (2024년 1월 3일 ~ 12일)
+   - 마감일은 17시까지입니다.
+   - 서류 제출 대상에 따라 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사** (2024년 1월 16일)
+   - 레저스포츠학과와 태권도학과에서 실시됩니다.
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사** (2024년 1월 17일)
+   - 디자인조형학과(시각디자인, 산업디자인, 공예디자인)와 체육학과에서 실시됩니다.
+   - 대기실 및 입실시간 안내는 2024년 1월 12일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부** (2024년 2월 2일)
+   - &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 학생들에 대해 발표됩니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **합격자 등록** (2024년 2월 7일 ~ 13일)
+   - 학교 지정은행에서 등록금을 납부해야 합니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+8. **충원 합격자 발표 및 등록** (2024년 2월 14일)
+   - 1차 충원 합격자 발표와 등록이 이루어집니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+9. **충원 합격자 2차 발표 및 등록** (2024년 2월 15일)
+   - 2차 충원 합격자 발표와 등록이 이루어집니다.
+   - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+10. **충원 합격자 3차 이후 발표 및 등록** (2024년 2월 15일 ~ 20일)
+    - 3차 충원 합격자 발표와 등록이 이루어집니다.
+    - 홈페이지에서 개별 조회 가능하며 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+위 일정은 일반적인 정시 모집 일정이며, 각 단과대학 및 모집단위에 따라 세부적으로 달라질 수 있으므로 공식 입학안내 홈페이지를 참조하시기 바랍니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 명확히 반영하지 않고 있습니다. 오히려 수능 미응시자도 지원 가능한 전형이 있다고 잘못된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 그와 반대되는 내용을 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 간과하고 있습니다. 따라서 관련성은 있지만, 핵심 주제를 제대로 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원본 텍스트와의 일관성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 수능 미응시자가 지원할 수 있다는 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 내용을 왜곡하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 부적절한 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.74032201846066</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 수능 미응시자도 지원이 가능한 정시 모집 전형에 대한 명확한 정보가 없습니다. 그러나 일반적으로 수능 미응시자도 지원 가능한 전형으로는 학생부종합전형 등이 있습니다. 동의대학교의 경우, 학생부종합전형(나군)과 같은 전형에서 수능 미응시자도 지원이 가능할 수 있으므로, 해당 전형의 자세한 조건을 확인하시기 바랍니다.
+더 정확한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 정보와 자세한 전형 안내를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 인원에 대한 정보를 잘못 전달하고 있습니다. 원문에서는 충원 합격이 36명까지 이루어졌다고 명시되어 있지만, 생성된 응답에서는 3차까지 이루어졌다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시되어 있는데, 생성된 응답에서는 3차까지 이루어졌다고 주장하고 있습니다. 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전자공학과의 모집 인원과 충원 합격에 대한 정보를 제공하고 있어 원문과 관련이 있습니다. 그러나 전년도에 대한 정보가 없다는 점을 명확히 하지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "deu. ac. kr" 부분에서 불필요한 공백이 있어 약간의 유창성에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 인원에 대한 정확한 정보를 제공하지 않으며, 원문과 상충하는 내용을 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답은 원문과의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7135577175697475</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위에서 전자공학과 교직의 정원 내 모집 인원은 60명이며, 충원 합격은 3차까지 이루어졌습니다. 하지만 전년도에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 웹사이트 링크를 언급하고 있지만, 전화번호에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 전화번호에 대한 잘못된 정보로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 잘못된 주장을 하고 있습니다. 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있습니다. 전화번호가 없다고 주장하는 것은 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.691930718250175</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 추가로 필요한 정보가 있다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 내용을 다루고 있지만, "해당 합격자의 등록이 자동으로 취소될 수 있습니다"라는 문구는 원문에서 명시된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다"와는 다소 차이가 있습니다. 따라서 일부 사실이 정확하지 않다고 평가할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, "자동으로 취소될 수 있습니다"라는 표현은 원문에서의 내용과 일치하지 않으며, 이로 인해 일관성이 떨어집니다. 원문은 명확하게 등록 의사가 없는 것으로 간주된다고 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 전화 통보와 관련된 처리 방법에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 차이로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서의 사실과 다소 차이가 있으며, 특히 등록 취소에 대한 설명이 정확하지 않습니다. 따라서 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 일부 표현에서 원문의 의미와 다소 차이가 있어 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 표현에서 혼란을 줄 수 있는 부분이 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6241426413011023</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 해당 합격자의 등록이 자동으로 취소될 수 있습니다. 그러나 정확한 처리 방법은 입학 안내 홈페이지에서 공고된 내용을 확인해야 합니다.
+따라서, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 최신 정보를 확인하시기 바랍니다. 해당 페이지에서는 3차 이후 충원합격자에 대한 전화 통보 시의 처리 방법 등 자세한 안내가 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 제출해야 할 서류에 대한 주요 정보를 포함하고 있으며, 대부분의 사실이 정확하게 반영되어 있습니다. 그러나 "고교 졸업증명서"와 같은 추가 서류에 대한 언급이 원문에 명시된 내용과 다소 차이가 있어 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "최종 등록자에게만 요청될 수 있다"는 부분에서 원문에 명시된 조건과 다소 상충하는 내용이 있습니다. 따라서 일관성 점수는 3으로 평가했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 서류와 관련된 정보를 잘 전달하고 있으며, 주제와 관련성이 높습니다. 따라서 관련성 점수는 5로 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 매끄럽지 않아 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 요구하는 서류에 대한 정확한 정보를 제공하고 있지만, 일부 세부사항에서 차이가 있어 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항에서의 차이로 인해 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 일부 표현에서 다소 차이가 있어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7361852400529817</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 주요 서류들은 다음과 같습니다:
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자 제외)
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자 제외)
+이 외에 추가로 필요한 서류는 최종 등록자에게만 요청될 수 있으며, 이 경우는 고교 졸업증명서와 지원자 본인, 부모 초본 각 1부 (총 3부)가 필요합니다.
+상세한 내용은 공식 웹사이트를 참조하시거나 문의해보시는 것이 좋습니다. [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 정확하게 반영하고 있으며, 추가적으로 필요한 서류에 대한 설명도 포함되어 있습니다. 그러나 "6년 과정 서류를 제출 가능합니다"라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, 추가된 정보(6년 과정 서류 제출 가능성)가 원본 텍스트와 일치하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록과 추가 정보가 잘 연결되어 있습니다. 그러나 추가된 정보가 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 6년 과정 서류에 대한 언급은 원본 텍스트에 없으므로 정확성 점수가 약간 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 다르기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8017927733669755</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.
+추가로 중학교 재학 시 부모 모두 농어촌 지역에 거주한 자는 6년 과정 서류를 제출 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있으며, 저소득 기회균등 전형에 대한 언급이 없다는 점도 잘 설명하고 있습니다. 그러나 "저소득 기회균등 전형이 선발되지 않는 것으로 보입니다"라는 표현은 다소 주관적일 수 있어 완전한 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 기회균등 전형이 존재하지 않음을 언급하고 있습니다. 그러나 "선발되지 않는 것으로 보입니다"라는 표현은 약간의 모호성을 포함하고 있어 완전한 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에서는"이라는 문구가 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "저소득 기회균등 전형이 선발되지 않는 것으로 보입니다"라는 부분이 약간의 불확실성을 주어 완전한 일관성을 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "보입니다"라는 표현이 주관적이어서 완전한 정확성을 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 약간의 주관성이 있어 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "보입니다"라는 표현이 다소 주관적이어서 완전한 적절성을 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.654117392505014</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서 특정한 '저소득 기회균등 전형'에 대한 내용이 없습니다. 따라서, 현재의 정보로는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 보입니다.
+만약 더 자세한 정보가 필요하다면, 해당 대학의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2.5 등급이 절사되지 않고 그대로 반영된다고 주장하지만, 원본 텍스트에서는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5 등급이 절사되지 않는다고 주장하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 절사 여부에 대한 불확실성을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 포함하고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으므로, 생성된 응답의 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 예시를 통해 설명하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6307787401083972</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 2.5 등급으로 평균산출됩니다.
+수능 영역 중 과탐(사회탐구 또는 과학탐구)의 경우, 최저등급에서 사탐이나 과탐 2개 과목을 평균산출합니다. 만약 한 과목이 2.5 등급이고 다른 과목이 3등급이라면, 이 두 과목의 평균을 구하여 절사하지 않고 그대로 반영합니다.
+예를 들어:
+- 과탐(1) : 2.5 등급
+- 과탐(2) : 3등급
+평균산출 = (2.5 + 3) / 2 = 2.75 등급
+따라서, 2.5 등급은 절사되지 않고 그대로 반영됩니다.
+자세한 내용은 "수능 영어영역 등급에 따른 점수"와 "반영교과 및 과목" 항목을 참고하시거나, https://ipsi. deu. ac. kr/main. do 링크를 통해 공식 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 명시하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명확히 언급하고 있습니다. 4차 발표에 대한 정보는 원본에 포함되어 있지 않으므로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 4차 발표를 포함하고 있어 원본 텍스트와 일치하지 않습니다. 원본에서는 3차 이후 발표는 개별 전화 통보로 진행된다고만 언급하고 있어, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 다루고 있으며, 발표 일정에 대한 정보를 제공하고 있습니다. 그러나 4차 발표에 대한 언급이 원본과 일치하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 4차 발표에 대한 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 4차 발표에 대한 정보가 원본과 일치하지 않아 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 4차 발표에 대한 잘못된 정보를 포함하고 있어 정확성이 낮습니다. 원본 텍스트와의 불일치로 인해 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 혼합되어 있습니다. 일부는 잘 작성되었지만, 사실성과 일관성에서 큰 문제가 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미와 다소 일치하지만, 4차 발표에 대한 언급이 원본의 맥락과 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 4차 발표에 대한 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8224898784655732</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00에 발표됩니다.
+2. **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00에 발표됩니다.
+3. **3차 충원 합격자 발표**: 2024년 2월 15일 (목) 19:00부터 2024년 2월 20일 (화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+4. **4차 충원 합격자 발표**: 이는 3차 이후의 합격자를 위한 것으로, 개별 전화 통보를 통해 안내됩니다.
+이와 같이 총 4차로 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e-비즈니스학과의 평균 수능 4개 영역 등급을 5.32로 제시하고 있으나, 원본 텍스트에서는 최초 합격자와 최종 등록자의 평균 등급이 각각 4.17과 4.53으로 명시되어 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 평균 등급에 대한 정보가 상충합니다. 원본 텍스트의 평균 등급과 생성된 응답의 평균 등급이 서로 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 합격 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 평균 등급에 대한 정보가 잘못되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성과 일관성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 구체적인 사실과는 다소 동떨어져 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5721291679039177</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 경우, 모집단위가 "경영정보학과, e비즈니스학과"로 변경되었습니다. 현재 제공된 데이터는 각 단과대학 및 모집단위별 수능 성적 분포를 보여주고 있습니다.
+e비즈니스학과의 평균 수능 4개 영역 등급은 5.32이며, 표준 편차가 0.36입니다. 이는 e비즈니스학과의 수능 성적이 상대적으로 높다는 것을 의미합니다.
+만약 수능 4개 영역 등급이 4.6이라면, 평균보다 약간 낮은 수준입니다. 그러나 표준 편차가 작기 때문에 이 점수는 대부분의 지원자들보다 높을 것입니다. 따라서 4.6이라는 점수로 정시 전형으로 추가 합격 가능성이 있지만, 확실한 것은 아닙니다.
+정확한 합격 가능성은 해당 단과대학 및 모집단위별 수능 최저기준을 확인해야 합니다. 만약 수능 최저기준이 4.6보다 낮다면, 추가 합격 가능성은 높아질 것입니다.
+더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 지원자들의 수능 평균 등급을 5.21로 제시하고 있지만, 이는 원본 텍스트에 명시된 평균 등급 4.53과 상충합니다. 따라서 사실관계에서 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 수능 평균 등급에 대한 정보가 서로 상충합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 수능 평균 등급에 대한 정보가 잘못되었습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실관계와 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하려고 하지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7567059623349934</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과의 지원자들의 수능 평균 등급은 5.21입니다 (표준 편차는 0.33). 이 데이터를 바탕으로, 정시 등급이 5.3인 경우 최초 합격 가능성은 높아 보입니다.
+하지만 최종 결정에는 여러 요소가 포함되므로 다음과 같은 점들을 고려해야 합니다:
+1. **경쟁률**: e비즈니스학과의 경쟁률을 확인해야 합니다.
+2. **수능 4개 영역 등급 평균**: 수능 4개 영역 등급 평균이 5.3보다 높다면, 합격 가능성은 더 높아집니다.
+3. **국어+수학+탐구(가산점 포함) 표준 변환 점수 합**: 이 값도 고려해야 합니다.
+위의 정보만으로는 정확한 예측이 어렵지만, 수능 등급이 5.3이라면 최초 합격 가능성은 높아 보입니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성에 대한 명확한 정보를 제공하지 않고, 대신 추가적인 정보 요청을 하고 있습니다. 원본 텍스트에서는 예비 38번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 이를 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일관되게 반영하지 않습니다. 원본에서는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 판단을 피하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번 학생에 대한 정보 요청을 포함하고 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원본 텍스트의 주제와의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 원본 텍스트와의 일관성 및 사실성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 예비 38번의 합격 가능성에 대한 명확한 언급이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.669123353301442</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생이 e비즈니스학 전공을 지원하는 경우, 현재 제공된 데이터로는 해당 단과대학의 모집단위와 지원 자격에 대한 정보가 없습니다. 따라서 정확한 판단을 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. **모집단위**: e비즈니스학 전공이 모집되는 특정 단과대학 및 계열, 모집단위가 무엇인지 확인해야 합니다.
+2. **지원 자격**: 지원자(38번 학생)의 학력, 경력 등이 해당 단과대학의 지원 자격에 부합하는지 확인해야 합니다.
+만약 위 정보를 제공받아도 여전히 판단하기 어렵다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하여 더 자세한 정보를 얻는 것이 좋습니다. 해당 사이트에서는 각 단과대학의 모집단위, 지원 자격 등에 대한 상세한 정보를 확인할 수 있습니다.
+만약 추가로 필요한 정보가 있다면 알려주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급을 3.88로 언급하고 있으나, 원본 텍스트에서는 2.34로 명시되어 있습니다. 이로 인해 사실관계에서 오류가 발생하였고, 평균 점수와 표준 편차에 대한 정보도 원본 텍스트에 포함되어 있지 않아 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 평균 영어 등급과 관련된 정보가 상충하여 일관성이 부족합니다. 또한, 추가된 정보가 원본 텍스트와의 일관성을 해치고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 간호학과의 합격 가능성에 대한 논의가 이루어지고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 주제에 대한 설명이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있으나, 평균 영어 등급과 관련된 잘못된 정보로 인해 정확성이 떨어집니다. 또한, 원본 텍스트의 핵심 사실을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으나, 사실관계와 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 의미의 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 이루어지고 있습니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5783442360802273</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수로 동의대학교 간호학과에 합격할 확률은 낮을 수 있습니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 해당 모집단위의 평균 성적과 표준 편차를 고려해야 합니다.
+간호학과의 경우, 지원 인원이 110명이고 충원 합격자는 22명으로 경쟁률이 높습니다. 평균 점수와 표준 편차를 확인해 보겠습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 303.44
+- 영어 등급의 평균: 3.88
+평균 점수가 303.44이고, 표준 편차가 10.34라는 것을 고려하면, 3.44는 평균보다 상당히 낮은 점수입니다.
+따라서, 3.44의 성적로 동의대학교 간호학과에 합격하기 어렵다고 판단할 수 있습니다. 하지만, 입시 결과는 다양한 요인에 의해 결정되므로, 최종적인 합격 여부는 입시 결과 발표를 기다려야 합니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, 동의대학교 입학처 또는 관련 부서와 연락을 취해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급보다 높은 성적을 가지고 있다고 언급된 원문과 상반된 내용을 제시하고 있습니다. 2.52라는 점수로 합격 가능성이 낮다고 주장하지만, 원문에서는 이 점수가 평균 등급보다 높아 합격 가능성이 높다고 설명하고 있습니다. 따라서 사실관계에서 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 2.52가 평균 등급보다 높다고 하였으나, 생성된 응답에서는 이 점수로 합격하기 어렵다고 주장합니다. 이러한 모순으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원문에서 제시된 평균 등급과의 비교가 잘못되었기 때문에 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 응답의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상반된 정보를 포함하고 있습니다. 2.52라는 점수가 평균 등급보다 높다는 사실을 무시하고, 합격 가능성이 낮다고 주장하는 것은 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계, 일관성, 정확성에서 큰 문제를 가지고 있어 전반적인 품질이 낮습니다. 관련성은 어느 정도 있지만, 다른 차원에서의 문제로 인해 전체 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적 적절성에서 중간 정도의 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6485708320870806</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수로 동의대학교 간호학과를 최종 합격시키기는 어려울 것으로 보입니다.
+간호학과의 지원 인원이 145명이고, 충원 합격자 수가 37명이라는 것을 볼 때 경쟁률이 매우 높습니다. 또한, 간호학과는 일반적으로 국어, 수학, 영어 등 주요 과목에서 높은 점수를 요구합니다.
+간호학과의 지원 자격을 위해서는 다음과 같은 조건들이 필요할 것입니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**이 357.63 이상이어야 합니다.
+2. **영어 등급**이 1.86 이상이어야 합니다.
+현재 제시된 성적인 2.52는 이 조건들을 충족시키지 못하므로, 최종 합격 가능성은 낮습니다. 그러나 정확한 판단을 위해서는 동의대학교에서 제공하는 자세한 입학 기준과 지원 자격 조건을 확인하시기 바랍니다.
+만약에 더 많은 정보가 필요하다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)를 방문하여 공식 입학 안내 페이지를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 모집 여부에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 정시 등급이 3.7일 경우 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 2024년도에 간호학과가 모집하지 않는다고 주장하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 정시 등급에 대한 정보를 제공하고 있으며, 합격 가능성에 대한 결론을 내리고 있습니다. 그러나 생성된 응답은 모집 중지에 대한 정보로 전환되어 원본의 주제를 벗어나고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과에 대한 정보를 제공하지만, 원본 텍스트의 핵심 주제인 정시 등급과 합격 가능성에 대한 질문에 직접적으로 답하지 않고 있습니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져 있습니다. 간호학과의 모집 여부에 대한 정보가 갑작스럽게 등장하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 모집 여부에 대한 정보가 정확하지 않을 수 있으며, 원본 텍스트의 사실과 상충합니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 간호학과의 모집 여부에 대한 정보가 원본의 질문과 관련이 적습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 주제의 일관성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5428171800533781</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024년도에는 간호학과가 모집하지 않는 것으로 보입니다. "정시모집군 변경" 항목에서 확인해보니, 2023년도에는 간호학과가 있었으나 2024년도에는 모집이 중지된 상태입니다.
+따라서 현재 정보로는 간호학과에 지원할 수 없다는 결론을 내릴 수 있습니다. 만약 다른 전형으로 지원하려면, 학생부종합(조기취업형계약학과전형) 등 다른 전형들을 고려해볼 필요가 있을 것 같습니다.
+더 자세한 정보를 얻으시려면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 대학 입학처에 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 영어 등급 평균이 1.86이라는 정보는 원본 텍스트와 일치하지 않으며, 이는 잘못된 정보입니다. 또한, 정시 성적이 2.58인 경우 합격 가능성이 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실관계에 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주장을 반박하는 내용을 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 2.58의 성적이 평균보다 높아 합격 가능성이 높다고 언급했으나, 생성된 응답은 합격이 어렵다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집 정보와 관련된 내용을 다루고 있으며, 질문에 대한 답변을 제공하고 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없거나 불필요한 세부사항이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 원본 텍스트의 주장을 반박하는 부분에서 일관성이 떨어져 전체적인 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있으며, 특히 영어 등급 평균에 대한 잘못된 정보가 포함되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실관계와 일관성에서 문제가 있어 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않으며, 특히 합격 가능성에 대한 주장이 상충합니다. 이는 의미의 적절성에 영향을 미칩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6500106163769154</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집 정보를 바탕으로 분석해보겠습니다.
+간호학과는 다음과 같은 특징을 가지고 있습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 충원 합격 (후보순위): 37명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63이고, 영어 등급의 평균은 1.86입니다.
+당신이 정시 성적이 2.58이라면, 이는 영어 등급 평균인 1.86보다 높습니다. 그러나 간호학과의 경쟁률이 매우 높아서, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합도 상당히 높은 평균을 가지고 있습니다.
+현재 정보로는 정시 성적이 2.58인 경우 간호학과에 합격하기 어렵다고 판단됩니다. 하지만, 정확한 합격 가능성은 실제 모집 결과와 개인의 전체 점수를 고려해야 하므로, 최종 결정을 내리기 전에 동의대학교의 공식 입학 정보 페이지 (https://ipsi. deu. ac. kr/main. do)를 확인하시거나, 대학 관계자에게 직접 문의하시는 것이 좋습니다.
+또한, 다른 학과나 전형도 고려해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경쟁률과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 예비 7번의 합격 가능성에 대한 직접적인 언급이 없고, 원본의 핵심 내용을 왜곡하고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 경쟁률에 대한 분석으로 대체하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 일치하지 않으며, 예비 7번의 합격 가능성에 대한 정보가 부족합니다. 원본의 내용과 상충하는 정보가 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 예비 7번의 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 원본의 주제와 관련된 정보가 명확히 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비 7번의 합격 가능성에 대한 정보가 왜곡되어 있습니다. 원본의 핵심 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 원본의 질문에 대한 적절한 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 관련성이 부족하여 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5478545869049314</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지원에 성공할 확률을 판단하기 위해서는 해당 모집단위의 경쟁률을 고려해야 합니다. 제공된 데이터를 바탕으로 '게임공학과'의 경우, 모집인원이 3명이고 지원 인원이 16명이라는 정보가 있습니다. 이에 따라 경쟁률은 약 5.33입니다.
+경쟁률이 높다는 것은 충분한 준비와 좋은 성적을 보유하고 있어야 붙을 확률이 높아진다는 것을 의미합니다. 제공된 데이터에서 '국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합'의 평균은 317.77이고, '영어 등급'의 평균은 4.33입니다.
+이러한 정보를 바탕으로 다음과 같은 준비를 추천드립니다:
+1. **성적 향상**: 국어, 수학, 탐구 과목에서 더 높은 점수를 받기 위한 학습을 진행하세요.
+2. **영어 실력 강화**: 영어 등급이 평균 4.33이라는 것을 고려하여 영어 실력을 향상시키는 것이 중요합니다.
+3. **면접 준비**: 면접 질문 공통문항을 통해 지원동기와 학업계획, 전공적합성에 대한 답변을 미리 연습해 보세요.
+이러한 준비를 통해 경쟁률을 극복하고 원하는 학과에 붙을 수 있는 기회를 잡아보시기 바랍니다. 만약 더 자세한 정보가 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급과 관련된 정보는 제공하지만, 게임공학과의 평균 등급과 관련된 구체적인 수치(영어 등급 평균 3.25, 수능 4개 영역 등급 평균 4.78)를 포함하지 않아 일부 사실이 누락되었습니다. 또한, 경쟁률과 관련된 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 같은 추가 정보를 제공하면서 원본 텍스트와의 일관성이 떨어지는 부분이 있습니다. 특히, 수능 등급이 평균치보다 낮다고 언급했으나, 원본 텍스트에서는 4.16이 평균보다 높은 성적이라고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 경쟁률과 같은 추가적인 정보가 포함되어 있어 약간의 주제 이탈이 발생했습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 경쟁률과 같은 추가 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 등급에 대한 정보는 정확하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다. 또한, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성에 의문을 제기합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 경쟁률과 같은 추가 정보가 포함되어 있어 약간의 맥락 이탈이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7128917427686935</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급을 가지고 동의대학교 게임공학과에 지원한다면, 현재 제공된 데이터를 바탕으로 판단해보겠습니다.
+게임공학과의 모집인원은 3명이며, 지원 인원이 16명입니다. 따라서 경쟁률은 약 5.33입니다. 이는 상대적으로 높은 경쟁률을 보여줍니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.77이고, 표준 편차는 2.51입니다. 이 값들은 지원자의 성적을 비교할 때 중요한 기준이 됩니다.
+당신의 수능 등급인 4.16은 평균치보다 약간 낮지만, 표준 편차가 매우 작다는 점을 고려하면, 평균치에 가까운 수준입니다. 따라서, 이 수준의 성적으로는 경쟁률이 높은 모집단위에서 추가 합격이 가능할 확률은 낮다고 판단됩니다.
+하지만, 정시 전형에서는 다양한 요소가 고려되므로, 서류평가와 면접 등 다른 평가 항목을 잘 준비한다면 추가 합격 가능성은 열려 있습니다. 특히, 지원동기나 학업계획, 전공적합성 등을 잘 설명할 수 있다면 이점이 유리하게 작용할 수 있습니다.
+따라서, 최종 결정을 내릴 때는 서류평가와 면접 준비를 철저히 하시고, 추가적으로 제공된 정보를 참고하시기 바랍니다. 더 자세한 조언을 원하신다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 전형요소 반영비율과 표준 변환 점수 계산에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 정시 성적 3.75에 대한 합격 가능성에 대한 직접적인 언급이 부족하고, 잘못된 수치(예: 표준 변환 점수 계산)가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관되지 않으며, 원본에서 제시된 합격 가능성에 대한 정보와 상충하는 내용을 포함하고 있습니다. 특히, 표준 변환 점수 계산이 원본의 맥락과 맞지 않습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 입시 관련 정보를 제공하지만, 원본 텍스트의 핵심 질문인 정시 성적 3.75에 대한 합격 가능성과 직접적으로 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 수식이 복잡하게 표현되어 있어 약간의 이해를 방해할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 표준 변환 점수 계산 부분이 원본의 주제와 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 표준 변환 점수 계산이 잘못된 수치를 포함하고 있으며, 원본 텍스트의 사실과 일치하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 일부 일치하지만, 주제와 관련된 정보가 부족하여 의미적으로 완전히 적절하지는 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 복잡한 수식과 계산이 포함되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7079487176026898</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 경우, 전형요소 반영비율을 살펴보면 학생부교과와 출결, 서류, 면접, 실기 등이 반영되지 않고 수능만이 100%로 반영됩니다. 따라서, 정시 성적인 국어+수학+탐구(2개)의 표준 변환 점수가 중요합니다.
+주어진 데이터에서 경영정보학과의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.97입니다. 표준 편차는 15.35입니다.
+정시 성적인 3.75를 기반으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합을 계산해보겠습니다:
+- 평균: 286.97
+- 표준 편차: 15.35
+3.75를 기반으로 표준 변환 점수를 계산하면 다음과 같습니다:
+\[ \text{표준 변환 점수} = (\text{정시 성적} - \text{평균}) / \text{표준 편차} \times 100 + \text{평균} \]
+\[ \text{표준 변환 점수} = (3.75 - 286.97) / 15.35 \times 100 + 286.97 \approx 410.5 \]
+이 값은 평균보다 높으므로, 최초등록자로 가능할 것으로 보입니다.
+하지만, 이는 단순 계산이며 실제 등록 여부는 여러 요인에 따라 결정되므로, 정확한 정보를 얻기 위해서는 대학 입시 홈페이지나 관계 부서에 문의하는 것이 좋습니다. 더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 모집인원과 지원자의 수능 평균 점수에 대한 정보를 제공하지만, 이는 원본 텍스트에 명시된 내용과는 다릅니다. 원본 텍스트는 경영정보학과의 평균 등급에 대한 정보만을 제공하고 있으며, 생성된 응답은 추가적인 정보를 포함하고 있지만, 이 정보의 출처가 불명확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보가 원본 텍스트와 충돌할 수 있는 가능성이 있습니다. 예를 들어, 수능 평균 점수가 4.65라는 정보는 원본 텍스트의 평균 등급과는 관련이 없으며, 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 최초등록자 가능성에 대한 요인들을 고려하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 문장 간의 연결이 매끄럽고, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 최초등록자 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와는 다른 수치를 제시하고 있으며, 이는 정확성에 영향을 미칩니다. 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 사실성과 일관성에서 다소 부족함이 있습니다. 그러나 유창성과 관련성은 높게 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6835906823550796</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 모집인원은 7명이며, 지원자의 수능 평균 점수는 4.65입니다 (국어+수학+탐구 영역). 현재 제공된 정보만으로는 정확한 판단이 어렵지만, 일반적으로 수능 성적이 4.2라면 경쟁률이 높은 편에 속합니다.
+최초등록자로 가능할지는 다음과 같은 요인들을 고려해야 합니다:
+1. 지원자의 수능 점수와 등급
+2. 학교생활기록부의 평가 결과
+3. 면접 성적
+만약 4.2라는 점수가 경쟁률이 높은 편이라면, 최초등록자로 선발될 가능성은 낮을 수 있습니다. 하지만 정확한 판단을 위해서는 동의대학교 입학사정관이나 해당 모집단위에 직접 문의하는 것이 가장 좋습니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급과 비교하여 현재 정시 등급이 낮다고 언급한 부분을 명확히 반영하지 못하고 있습니다. 또한, 수능 4개 영역 등급 평균이 5.33이라는 점을 긍정적으로 평가하고 있으나, 원본 텍스트의 결론과는 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 결론이 모호하게 표현되어 있어 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 이를 부정확하게 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 여러 요소를 언급하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급과의 비교가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 결론과의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있으나, 합격 가능성에 대한 해석이 부정확하여 정확성이 떨어집니다. 원본 텍스트의 결론과 상충하는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 해석에서 원본의 의도와 다르게 표현된 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6039228133217538</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과에 대한 모집요강을 확인하지 못했습니다. 따라서 정확한 답변을 드리기 어렵습니다.
+동의대학교 경영정보학과의 일반학생전형 합격 가능성은 다음과 같은 요소들로 결정됩니다:
+1. **수능 성적**: 수능 4개 영역 등급 평균이 중요합니다.
+2. **학생부 교과성적**: 사회 과목, 국어, 수학 등의 성적이 고려됩니다.
+3. **경쟁률**: 해당 학과의 경쟁률을 확인해야 합니다.
+수능 4개 영역 등급 평균이 5.33이라면, 이는 좋은 점수입니다. 그러나 정확한 합격 가능성은 동의대학교 경영정보학과의 모집요강과 해당년도의 실제 경쟁률을 확인해야 합니다.
+**추천 사항:**
+1. 동의대학교의 공식 웹사이트를 방문하여 2024년도 모집요강을 확인하세요.
+2. 경쟁률과 합격 기준을 파악합니다.
+3. 자신의 성적과 학생부 내용이 해당 학과에 적합한지 평가합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트를 방문하거나 입학처와 연락하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트로 이동할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 영어 등급을 4.70으로 잘못 언급하고 있으며, 이는 원본 텍스트의 3.82와 다릅니다. 또한, 수능 4개 영역 등급 평균을 언급하지 않아 중요한 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 잘못 해석하여 관련성을 떨어뜨립니다. 그러나 여전히 바이오응용공학부에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 제공하고 있으며, 특히 평균 영어 등급과 합격 가능성에 대한 잘못된 해석이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.5593280821475917</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>东义大食品专业的正试线成绩为3.33，想要被生物应用学部的最优先注册者录取可能性较低。根据提供的数据，生物应用学部（如应化）的平均英语等级为4.70左右，并且竞争率较高（例如在2.40以上），因此需要较高的综合成绩和英语水平。
+建议您查看具体专业的详细信息并参考以下几点：
+1. 英语等级：您的3.33可能低于专业要求。
+2. 综合成绩：需要确保总分达到或接近该专业的平均值。
+3. 竞争情况：了解当前的招生人数和申请人数，以评估录取的可能性。
+您可以访问东义大学官网（https://ipsi. deu.ac.kr/main.do）获取最新信息并确认具体要求。</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 포함하고 있지만, 4.4의 성적이 일부 모집단위에서 합격 가능성이 있을 것이라는 주장은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 4.4가 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 4.4의 성적이 방사선학과의 평균 등급보다 낮다고 명시하고 있으나, 생성된 응답은 일부 모집단위에서 합격 가능성이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보를 제공하고 있으며, 관련된 추가 고려사항을 제시하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 4.4의 성적에 대한 해석이 원본 텍스트와 다릅니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보를 제공하지만, 원본 텍스트의 의미와 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.601181074376046</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하려면, 학생부 교과성적 등급이 4.4정도라면 경쟁률을 고려해야 합니다. 현재 정보로는 방사선학과가 모집단위별로 다양한 경쟁률을 보이고 있습니다.
+방사선학과의 경우, 지원 인원이 많고 모집 인원이 적은 단과대학에서 경쟁률이 높을 수 있으므로, 성적만으로는 확실한 합격을 보장받기는 어렵습니다. 하지만 4.4정도의 등급이라면, 일부 모집단위에서는 충분히 합격 가능성이 있을 것입니다.
+추가적으로 고려해야 할 사항은 다음과 같습니다:
+1. **모집 단과대학**: 방사선학과는 특정 단과대학에서만 모집을 진행할 수 있으므로, 해당 단과대학의 경쟁률을 확인해보세요.
+2. **지원 자격**: 현재 지원 가능한 고교유형이 무엇인지 확인해야 합니다. 예를 들어, 일반고나 특수목적고 중 어느 유형에 지원할 수 있는지 등.
+3. **학생부 성적**: 학생부 교과성적이 중요하므로, 해당 과목의 성적을 잘 유지하고 있어야 합니다.
+추가적으로, 동의대학교 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보와 지원 자격 등을 확인하시기 바랍니다. 또한, 학교 관계자에게 직접 문의하거나 상담을 받는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 영어 등급과 경쟁률에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 평균 영어 등급(2.8)과 수능 4개 영역 등급 평균(3.82)과는 다르게 평균 영어 등급을 2.60으로 잘못 언급하고 있습니다. 또한, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 영어 등급에 대한 잘못된 정보와 경쟁률에 대한 추가 정보로 인해 일관성이 떨어집니다. 원본 텍스트의 내용과는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하는 것과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 경쟁률에 대한 정보가 추가되면서 약간의 혼란이 발생할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 영어 등급에 대한 잘못된 정보와 원본 텍스트에 없는 경쟁률 정보를 제공하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 경쟁률에 대한 정보가 추가되면서 약간의 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.7082438555168309</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66의 영어 등급으로 방사선학과에 지원하는 경우 경쟁률이 높아서 위험이 있을 수 있습니다. 방사선학과는 모집인원이 5명이고, 지원 인원이 36명으로 경쟁률이 7.20입니다. 평균 영어 등급은 2.60이며, 표준 편차가 0.80입니다.
+평균보다 약간 낮은 점수를 가지고 있다면, 다른 요소들(국어+수학+탐구의 합, 수능 4개 영역 등급)이 높아야 합니다. 특히 국어+수학+탐구의 합과 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 높은 것이 중요합니다.
+평균을 넘는 점수를 가지고 있다면, 경쟁력을 갖추고 있을 것입니다. 하지만 평균 이하로 점수가 낮다면, 다른 지원자들에 비해 약간 위험할 수 있습니다.
+결론적으로, 2.66의 영어 등급으로 방사선학과에 지원하는 것은 가능하지만, 다른 요소들이 높아야 합니다. 특히 국어+수학+탐구의 합과 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 높은 것이 중요합니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, "https://ipsi.deu.ac.kr/main.do"를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 3.66이라는 성적이 좋은 점수라는 점을 언급하고 있으며, 농어촌학생전형에서 학생부교과성적이 중요한 요소라는 점도 정확하게 반영하고 있습니다. 그러나, 경찰행정학과의 평균 수능 등급에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 농어촌학생전형에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주요 포인트와는 다소 다른 방향으로 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문자의 성적과 관련된 정보와 농어촌학생전형에 대한 조언을 제공하고 있어 매우 관련성이 높습니다. 원본 텍스트의 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 원본 텍스트와의 연결성이 약간 떨어져 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 성적에 대한 평가와 농어촌학생전형의 중요 요소를 정확하게 설명하고 있습니다. 그러나, 원본 텍스트의 평균 수능 등급에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 조언을 제공합니다. 다만, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 완전한 이해 가능성은 부족합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5234466928676652</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적은 좋은 점수입니다만, 농어촌학생전형의 경우 학생부교과성적이 중요한 요소 중 하나이므로 단순히 성적만으로는 확실한 답변을 드리기 어렵습니다. 특히, 경찰행정학전공에 지원하셨다면, 해당 전공과 관련된 활동이나 경험, 학업태도 등이 중요하게 평가될 것입니다.
+다음은 농어촌학생전형에서 합격할 수 있는 방법입니다:
+1. **성적**: 3.66이라는 성적이 좋은 점수이므로 이 부분에서는 우위를 가지실 수 있습니다.
+2. **학업태도 및 활동**: 지원자의 학교생활기록부에서 보여지는 학업태도, 참여한 활동, 경험 등을 잘 반영해야 합니다.
+3. **전공적합성**: 경찰행정학과와 관련된 활동이나 경험을 잘 설명하고 있어야 합니다.
+**추천 사항:**
+- 지원자의 학교생활기록부를 자세히 검토하여 전공적합성을 강조할 수 있는 부분을 찾아보세요.
+- 관련 활동이나 경험에 대한 자세한 설명을 준비하세요. 예를 들어, 사회봉사활동, 교육활동 등이 있습니다.
+**참고 링크:**
+https://ipsi. deu. ac. kr/main. do
+위의 정보와 함께 지원자의 학교생활기록부를 잘 검토하고, 전공적합성을 강조하는 서류를 준비하시면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 언급이 있지만, 원문에서 제공된 특정 학과 목록을 언급하지 않고 있습니다. 따라서 일부 정보가 누락되어 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자 순위에 대한 언급이 있지만, 원문에서 제시된 특정 학과와의 연관성이 부족합니다. 원문과의 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자에 대한 가능성을 다루고 있어 원문과 관련이 있지만, 원문에서 제공된 구체적인 학과 정보가 누락되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자에 대한 가능성을 언급하지만, 원문에서 제공된 구체적인 정보가 누락되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 다소 부족합니다. 사실성, 일관성, 정확성에서 약간의 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 다루고 있습니다. 그러나 원문과의 연결이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원문과의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.594160244537206</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자 순위는 높은 경쟁력을 가집니다. 그러나 아직 최종 합격자가 결정되지 않았기 때문에, 여전히 작은 가능성은 있습니다. 수능 점수와 서류 심사 결과 등이 중요하게 작용할 수 있으므로, 가능한 한 좋은 성적을 내고 서류 준비를 철저히 하는 것이 좋습니다.
+더 자세한 정보나 도움이 필요하시다면, 해당 대학의 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 확인하거나 입시 상담을 받는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 잘못된 점이 있습니다. 원문에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 법경찰행정학부에 대한 지원 정보를 제공하고 있습니다. 이는 사실과 상충합니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서 법경찰행정학부가 존재하지 않는다고 명시했음에도 불구하고, 생성된 응답에서는 해당 학부에 대한 정보를 제공하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 일부 관련 정보를 포함하고 있지만, 법경찰행정학부에 대한 잘못된 전제를 바탕으로 하고 있어 전체적으로 관련성이 떨어집니다. 원문에서 제공하는 정보와는 다소 동떨어진 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 법경찰행정학부의 존재 여부에 대한 잘못된 정보가 주된 문제입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 전제에 기반하고 있어 전체적으로는 적절하지 않습니다. 원문과의 의미적 일치가 부족합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7664140923299253</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려는 경우, 정확한 평균 성적을 예측하기 어렵습니다. 하지만 일반적으로 안정권이나 문 닫고 들어갈 수 있는 평균 성적을 추정해볼 수 있습니다.
+법경찰행정학부의 모집단위와 전형별로 지원 자격이 다르므로, 정확한 정보를 얻기 위해서는 해당 학과의 정원 내 모집 인원과 지원자의 경쟁률 등을 고려해야 합니다. 예를 들어, '나군'에서는 농어촌 학생전형을 통해 추가 모집 인원이 설정되어 있을 수 있습니다.
+일반적으로 안정권에 들기 위해서는 평균 성적이 90% 이상이어야 하며, 문 닫고 들어갈 수 있는 수준은 85%~90% 사이가 될 것입니다. 하지만 이는 단순 추정이며, 실제 지원자의 경쟁률과 모집 인원 등에 따라 변동될 수 있습니다.
+추천되는 방법은:
+1. 동의대학교 입학처 웹사이트를 확인하여 최신 정보를 얻습니다.
+2. 해당 학과의 정원 내 모집 인원과 나군 모집 인원을 파악합니다.
+3. 최근 몇 년간의 지원자들의 평균 성적과 경쟁률을 참고합니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트를 방문하여 확인하시거나, 학교 관계자에게 문의하시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do 링크를 통해 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보와 아동학과의 평균 등급에 대한 정보를 혼합하여 제공하고 있습니다. 그러나 아동학과의 평균 등급과 관련된 정보가 잘못 전달되었고, 보육가정상담학과에 대한 구체적인 정보가 부족합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 아동학과의 평균 등급과 보육가정상담학과의 정보를 혼합하여 제공하고 있어 일관성이 떨어집니다. 두 학과의 정보가 서로 충돌하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있지만, 아동학과에 대한 정보가 포함되어 있어 주제와의 관련성이 떨어집니다. 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 매끄럽지 않아 일관된 주제를 유지하지 못하고 있습니다. 각 정보가 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 아동학과의 평균 등급과 관련된 정보가 잘못되어 있으며, 보육가정상담학과에 대한 정보도 정확하지 않습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 아동학과와 보육가정상담학과의 정보가 혼합되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 정보의 혼합으로 인해 명확한 이해가 어려울 수 있습니다. 각 정보가 어떻게 연결되는지 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6588889879959805</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 정시 산출 등급을 확인해보겠습니다.
+보육가정상담학과의 경우, 지원 인원이 13명이고 모집 인원이 6명으로 경쟁률은 약 2.17입니다. 이는 상대적으로 낮은 경쟁률을 보여줍니다.
+또한, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 305.83이고, 영어 등급의 평균이 4.17이며, 수능 4개 영역 등급의 평균이 4.62입니다.
+정시 산출 등급이 5.33인 경우, 이는 상대적으로 높은 점수를 보여줍니다. 따라서, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급, 수능 4개 영역 등급 모두 평균을 상회하는 점수를 가지고 있다면 충분히 합격 가능성이 높습니다.
+하지만, 정확한 합격 여부는 해당 모집단위의 최종 합격자 명단과 지원자의 전체 성적 분포에 따라 결정되므로, 동의대학교 입학처 웹사이트나 전형 안내서를 확인하시거나, 직접 문의하시는 것이 가장 확실합니다. 
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성이 낮다고 언급하고 있지만, 원본 텍스트에서는 예비 번호가 12번일 경우 합격 가능성이 아예 없는 것은 아니라고 명시하고 있습니다. 따라서, 생성된 응답은 원본의 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성이 낮다고 주장하지만, 원본 텍스트에서는 예비 번호에 따라 합격 가능성이 달라질 수 있다고 설명하고 있습니다. 이로 인해 두 응답 간에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 예비 번호와 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 일관성에서 약간의 부족함이 있습니다. 그럼에도 불구하고 관련성과 유창성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용에서 원본과의 차이가 있어 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서는 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6307316412692001</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 매우 낮습니다. 일반적으로 예비 순위가 높을수록 합격 확률이 낮아집니다. 하지만 최종 합격자 발표일까지는 변동성이 있을 수 있으므로, 입학관리팀에 직접 문의하시거나, 홈페이지에서 개별 조회를 해보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 [입학 안내 홈페이지](http://ipsi.deu.ac.kr) 또는 학교 입학관리팀으로 연락을 주시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 유아교육학과에 지원하기 어려울 것이라는 원문 내용을 반영하고 있지만, "대부분의 전형에서 좋은 결과를 얻을 수 있을 것"이라는 주장은 다소 과장된 표현으로 보입니다. 유아교육학과의 경우, 평균 성적이 4.18로 나타나 있어 4.75로 지원하기 어려울 것이라는 점을 명확히 하지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 지원 가능성에 대한 원문 내용을 일부 반영하고 있으나, "어렵지 않을 것으로 예상된다"는 부분은 원문과 상충하는 내용입니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원문에서 제시된 구체적인 학과 목록이나 평균 성적에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 유아교육학과에 대한 결론 부분이 원문과 다르게 표현되어 있어 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 지원 가능성에 대한 정보가 정확하지 않으며, 4.75의 성적이 유아교육학과에 지원하기 어렵다는 원문 내용을 충분히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 원문과의 일관성, 정확성, 관련성에서 부족한 점이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 표현이 원문과 다르게 해석될 수 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7362033662231195</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수로는 대부분의 전형에서 좋은 결과를 얻을 수 있을 것입니다. 하지만 정확한 판단을 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **전형별 최저 합격 기준**: 각 전형별로 최저 합격 기준이 다르므로, 해당 전형의 최저 합격 기준 점수와 비교해 보아야 합니다.
+2. **과목 별 성적**: 수능은 국어, 영어, 수학, 사회(역사/도덕 포함) 등으로 구성되어 있습니다. 각 과목별로 어느 정도의 성적이 나왔는지 확인해야 합니다.
+유아교육학과에 대한 판단을 위해서는 해당 전형의 최저 합격 기준 점수와 비교해 보아야 합니다. 유아교육학과는 일반적으로 수능 점수가 높은 편이므로, 4.75라는 성적으로는 어렵지 않을 것으로 예상됩니다.
+만약 더 자세한 정보가 필요하다면, 해당 대학의 입학처 웹사이트를 참조하거나, 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 입학처 웹사이트에 접속할 수 있습니다.
+이런 정보들을 바탕으로 판단하시면 됩니다. 만약 더 자세한 조언이 필요하다면, 해당 대학의 입학처와 연락을 취하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 아동학과의 평균 수능 등급을 5.41로 제시하고 있으며, 이는 원본 텍스트에서 제공된 정보와 일치하지 않습니다. 원본 텍스트는 정시 등급이 4.16일 경우 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 반대로 합격이 어렵다고 판단하고 있습니다. 이러한 사실의 불일치는 응답의 사실성을 크게 저하시킵니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본 텍스트는 4.16의 정시 등급이 아동학과의 평균 등급보다 높다고 하였으나, 생성된 응답은 4.16이 평균 등급인 5.41보다 낮다고 주장합니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 아동학과에 대한 정보를 제공하고 있으며, 질문자의 상황에 대한 답변을 시도하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 동떨어진 정보가 포함되어 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 명확하지 않아 논리적 흐름이 다소 부족합니다. 특히, 원본 텍스트의 결론과 생성된 응답의 결론이 상충하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 특히, 수능 등급에 대한 해석이 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 의미와는 다소 다르게 해석되고 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 복잡하게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.7225919278565994</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 "보육가정상담학과"는 "아동학과"로 분리되었습니다. 따라서, 아동학과에 지원하실 때 참고해야 할 정보를 바탕으로 답변 드리겠습니다.
+아동학과의 전형 요소 반영 비율은 100% 수능 위주입니다. 즉, 학생부 교과, 출결, 서류, 면접, 실기가 반영되지 않습니다. 따라서, 수능 등급이 핵심적인 역할을 합니다.
+제공된 정보에 따르면, 아동학과의 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 395.58입니다. 이 값과 비교해보겠습니다:
+- 제공된 수능 등급: 4.16
+- 평균 수능 등급: 5.41
+수능 등급이 4.16인 경우, 평균 수능 등급인 5.41보다 낮습니다. 따라서, 이 점수로는 아동학과에 합격하기 어렵다고 판단됩니다.
+추합까지 생각한다면, 추합 점수도 고려해야 합니다. 하지만, 현재 제공된 정보만으로 보면, 수능 등급이 너무 낮아서 추합까지 포함해도 합격 가능성은 매우 낮습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 소프트웨어공학부에 대한 지원 자격과 평균 등급을 언급하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 소프트웨어융합학과에 대한 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 지원에 대한 조건을 설명하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 없습니다. 원문은 소프트웨어융합학과의 정시 지원 가능성에 대한 질문인데, 생성된 응답은 소프트웨어공학부에 대한 정보로 전환되어 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변이 아닌 소프트웨어공학부에 대한 정보를 제공하고 있어 논리적인 흐름이 부족합니다. 주제가 일관되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다릅니다. 소프트웨어융합학과는 정시로 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 전혀 없으며, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 명확하게 작성되었지만, 주제가 일관되지 않아 이해하는 데 혼란을 줄 수 있습니다. 따라서 평균적인 점수를 부여합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3955181955092404</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 정시로 지원하려는 경우, 평균 등급을 확인해보겠습니다.
+소프트웨어공학부의 지원 자격과 평균 등급은 다음과 같습니다:
+- **평균 영어 등급**: 3.30
+- **평균 수능 4개 영역 등급 (가산점 포함) 표준 변환 점수 합**: 450.71
+따라서, 소프트웨어공학부를 정시로 지원하려면 평균적으로 다음과 같은 조건을 충족해야 합니다:
+- **영어 등급**: 3.30 이상
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 450.71 이상
+이러한 평균 등급과 점수를 기반으로 지원을 진행하시면 됩니다. 하지만, 경쟁률이나 모집인원에 따라 실제 수락 가능성을 판단하기 위해서는 더 자세한 정보와 최신 동향을 확인하는 것이 좋습니다.
+더 궁금하신 사항이 있으시다면, "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 서류 평가와 면접 고사에 대한 정보를 잘 반영하고 있으며, 서류 준비사항에 대한 구체적인 내용을 포함하고 있습니다. 그러나 원본 텍스트에서 언급된 "학생부 교과성적"에 대한 언급이 부족하여 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 일관성을 유지하고 있으며, 면접에서 다루어지는 주제와 서류 준비사항에 대한 정보를 잘 연결하고 있습니다. 다만, 원본 텍스트의 모든 요소를 포함하지는 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 소프트웨어융합학과의 면접 및 서류 준비에 대한 관련 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 섹션이 잘 연결되어 있어 전체적으로 일관된 메시지를 전달합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트의 "학생부 교과성적"에 대한 언급이 누락되어 있어 완전한 정확성을 결여하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 세부 사항의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4822874166142359</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>《공통사항》
+면접에서는 주로 지원동기, 학업역량, 전공적합성 등에 대한 질문이 이루어집니다. 이 중에서 세특 내용은 면접에서도 중요하게 다루어지지만, 서류 평가와 마찬가지로 면접에서도 세부적인 경험과 성과를 잘 설명하는 것이 중요합니다.
+《서류 준비사항》
+면접 외에도 제출해야 하는 서류는 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+3. **외국 고교 졸업(예정)자**:
+   - 외국 고교 졸업증명서 사본 또는 합격증명서 1부
+   - 외국 고교 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+따라서, 세특 내용을 잘 준비하고 이를 면접에서도 구체적으로 설명하는 것이 중요합니다. 또한 위와 같은 서류를 체크리스트에 따라 정확하게 준비해야 합니다.
+더 궁금한 사항이 있으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 언급된 경쟁률(4.87)과 평균 점수(330.11)는 원본 텍스트에 포함된 정보가 아니며, 잘못된 정보입니다. 원본 텍스트는 4.12의 평균 등급과 4.08의 성적에 대한 내용을 다루고 있습니다. 따라서, 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(경쟁률과 평균 점수)를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트는 4.08의 성적이 최초합격자의 평균 등급과 비교적 근접하다고 언급하고 있지만, 생성된 응답은 다른 수치를 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 합격 가능성에 대한 질문에 대해 여러 요인을 고려해야 한다고 언급하고 있어 관련성이 높습니다. 그러나 잘못된 정보가 포함되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요인을 나열하고 있지만, 정보의 흐름이 다소 불명확하여 일관된 논리적 흐름이 부족합니다. 특히, 경쟁률과 평균 점수에 대한 언급이 원본 텍스트와 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 경쟁률과 평균 점수는 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 잘못된 정보가 포함되어 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락에 맞는 내용을 다루고 있지만, 잘못된 정보가 포함되어 있어 의미적으로 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.6700885703275734</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수를 가지고 동의대학교 소프트웨어공학부에 최초합격을 할 수 있을지는 여러 요인들이 고려되어야 합니다.
+1. **경쟁률**: 소프트웨어공학부의 경쟁률이 4.87으로 매우 높습니다. 이는 많은 지원자가 동일한 학과를 원한다는 것을 의미합니다.
+2. **평균 점수**: 해당 학과의 최초합격자들의 평균 점수가 330.11입니다. 이보다 낮은 점수를 가진 지원자는 경쟁에서 밀릴 가능성이 높습니다.
+4.08이라는 점수는 평균점수(330.11)에 비해 약간 낮지만, 표준편차가 9.08이므로, 이 정도의 차이는 큰 영향을 미치지는 않을 것입니다. 그러나 경쟁률이 매우 높기 때문에, 점수만으로는 확실한 합격을 보장받기는 어렵습니다.
+따라서, 4.08이라는 점수로 동의대학교 소프트웨어공학부에 최초합격을 할 수 있을지는 불확실합니다. 다른 요인들(예: 영어 등급, 교과 성적 등)도 고려되어야 하며, 지원자의 전체적인 학업 성적이 중요하게 작용할 것입니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, 동의대학교 입학처에 직접 문의하시는 것이 좋습니다. 더 많은 데이터를 바탕으로 결정을 내리시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 잘못된 내용을 포함하고 있습니다. 또한, 영어 등급에 대한 언급은 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 제공하고 있으며, 소프트웨어공학부에 대한 정보는 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 소프트웨어융합학과의 정시 모집에 대한 정보에 집중하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일부 논리적 흐름이 있지만, 원본 텍스트와의 관련성이 부족하여 전체적으로 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 소프트웨어공학부에 대한 언급은 원본 텍스트와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로는 명확하지만, 내용의 일관성이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6325260750763659</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 지원하려면, 정시 모집의 경우 영어 등급이 5.13 이상이어야 합니다 (ICT융합공과대학 소프트웨어공학부의 평균 영어 등급을 참고). 
+하지만, 평균 5등급으로는 경쟁이 치열할 수 있습니다. 지원 인원이 많고 경쟁률이 높은 곳에서는 5등급으로도 충분히 합격할 수 있지만, 낮은 경쟁률의 모집단위에서는 더 높은 등급을 요구할 수 있습니다.
+따라서, 정확한 확률을 예측하기 위해서는 해당 단과대학 및 모집단위의 경쟁률과 지원 인원 등을 고려해야 합니다. 
+추가적으로, 다른 평가 요소들 (예: 수능 점수, 학생부 교과 성적 등)도 중요한 역할을 하므로, 이들을 종합적으로 고려해보시는 것이 좋습니다.
+만약 더 자세한 정보를 원하시면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 여러 요인을 고려해야 한다고 언급하고 있지만, 제공된 데이터와 관련된 구체적인 수치(예: 평균 성적, 경쟁률 등)가 정확하지 않거나 관련이 없는 정보가 포함되어 있습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 다소 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 다른 전형의 평균 성적 및 경쟁률에 대한 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트는 신소재공학과에 대한 정보에 집중하고 있으나, 생성된 응답은 다른 학과의 정보를 포함하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과에 대한 합격 가능성을 논의하고 있지만, 다른 전형의 평균 성적 및 경쟁률에 대한 정보가 포함되어 있어 다소 주제에서 벗어난 느낌이 있습니다. 그러나 여전히 주요 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 각 요인 간의 연결이 명확하지 않아 논리적 흐름이 다소 부족합니다. 정보가 나열된 방식이 일관되지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 정보를 제공하지만, 다른 전형의 평균 성적 및 경쟁률에 대한 정보가 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 핵심 정보와는 다소 동떨어진 내용이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성, 일관성, 정확성에서 다소 부족한 점이 있지만, 여전히 관련성과 유창성은 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 다른 전형의 정보가 포함되어 있어 약간의 의미적 부적절함이 있습니다. 그러나 전반적으로는 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6363777132650595</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 합격할 수 있는지는 여러 요인을 고려해야 합니다.
+1. **전형별 평균 성적**: 제공된 데이터에서 각 전형별로 평균 성적이 있습니다. 예를 들어, "공과대학"의 "산업경영빅데이터공학과"에서는 평균 점수가 399.96입니다. 이는 4.28보다 높습니다.
+2. **경쟁률**: 경쟁률이 매우 중요합니다. 제공된 데이터에서 가장 낮은 경쟁률은 "디지털콘텐츠학과"의 1.60이며, 가장 높은 경쟁률은 "컴퓨터공학과"의 4.25입니다.
+3. **전형별 평균 등급**: 제공된 데이터에서 각 전형별로 수능 4개 영역 등급의 평균이 있습니다. 이는 합격 가능성에 큰 영향을 미칩니다. 예를 들어, "컴퓨터공학과"에서는 평균 등급이 5.27입니다.
+따라서, 4.28이라는 점수로 동의대학교 신소재공학과에 합격할 수 있는지는 다음과 같은 요인들에 따라 달라집니다:
+- 해당 전형의 평균 성적
+- 경쟁률
+- 전형별 평균 등급
+따라서, 정확한 답변을 위해서는 동의대학교 신소재공학과의 특정 전형(예: 일반전형)에 대한 평균 성적과 경쟁률 등을 확인해야 합니다. 더 자세한 정보를 얻기 위해 "https://ipsi. deu. ac. kr/main. do"로 접속하여 해당 학과와 전형에 대한 자세한 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 언급하고 있지만, 추가적으로 자기소개서를 준비할 수 있다고 언급하여 원문과 상충하는 내용을 포함하고 있습니다. 이는 원문에서 명확히 부정한 사항이므로 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 자기소개서를 준비할 수 있다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서 요구하는 정보에 비해 불필요한 추가 정보가 포함되어 있습니다. 그러나 여전히 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 한국어가 아닌 다른 언어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 원문과의 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 명시한 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 자기소개서가 필요 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 내용이 포함되어 있어 의미적 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 한국어가 아닌 다른 언어로 작성되어 있어 한국어 사용자에게는 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4535250961105253</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般来说，对于通过普通学生入学考试（수능）申请的考生来说，并不需要提交个人陈述书（자기소개서）。但是，为了更好地展示自己的个性和特长，你可以准备一份个人陈述书。不过这并不是强制性的要求。
+如果你决定写个人陈述书，可以考虑以下内容：
+1. 介绍自己：包括兴趣爱好、特长等。
+2. 自我评价：描述自己的优点和努力方向。
+3. 相关经历：分享与申请专业相关的经历或活动。
+4. 未来规划：简述对未来职业的期望。
+不过请注意，具体要求可能会因学校而异。建议你直接访问东义大学的官方网站（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和指南，以确保准确了解所有申请流程和所需材料。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 추가 모집에 대한 여러 요소를 잘 설명하고 있으며, 원본 텍스트의 정보와 대체로 일치합니다. 그러나 "4.5라는 점수는 상당히 좋은 성적입니다"라는 표현은 다소 주관적일 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 정보와 관련된 요소들을 잘 설명하고 있습니다. 다만, 일부 세부 사항에서 원본 텍스트와의 일관성이 약간 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가 모집에 대한 정보도 정확하게 전달하고 있습니다. 다만, 주관적인 표현이 포함되어 있어 약간의 정확성 저하가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6421299017892743</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 좋은 성적입니다. 하지만 추가모집에 들어갈 수 있는지 결정하는 요소는 다양합니다. 주요 요인으로는 모집단위, 경쟁률, 학교의 입학 정책 등이 있습니다.
+1. **모집단위**: 각 모집단위마다 다른 수능 점수 기준이 있을 수 있으므로, 해당 모집단위의 기준을 확인해야 합니다.
+2. **경쟁률**: 현재 경쟁률과 지원 인원 등을 고려해야 합니다. 경쟁률이 높다면 더 높은 점수가 필요할 수 있습니다.
+3. **학교 입학 정책**: 동의대학교의 추가모집에 대한 입학 정책을 확인해야 합니다. 일부 학교는 추가모집에서도 기준점을 유지하거나, 다른 요인들을 고려할 수 있습니다.
+추가로, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하여 최신 정보와 정확한 입학 정책을 확인하는 것이 좋습니다. 해당 사이트에서 모집단위별 기준점과 경쟁률 등을 확인할 수 있을 것입니다.
+만약에 추가모집에서도 기회가 없다면, 다른 대학이나 전형을 고려해 보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부에 대한 정시 등급 정보가 없다고 주장하지만, 원본 텍스트에는 신소재공학과의 영어 등급 평균과 수능 4개 영역 등급 평균이 명시되어 있습니다. 따라서, 응답은 원본 텍스트의 사실을 잘못 반영하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 부정하며, 신소재공학부에 대한 정보가 없다고 주장합니다. 이는 원본 텍스트와 상충되는 내용으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부에 대한 정보를 요청하는 질문에 대해 관련된 정보를 제공하지 않고 있습니다. 그러나, 원본 텍스트의 링크를 언급하며 추가 정보를 찾도록 안내하고 있어 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 정보가 분산되어 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 신소재공학부에 대한 구체적인 정보를 제공하지 않고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있지만, 정보의 부재로 인해 의미 전달이 부족합니다. 따라서 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 정보의 부족으로 인해 완전한 이해는 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6313271265350068</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교에 관련된 신소재공학부에 대한 정시 등급 정보가 없습니다. 신소재공학부와 관련된 정시 모집군이나 등급 정보가 포함되어 있지 않아 확인이 불가능합니다.
+제공된 정보는 주로 인문사회과학대학의 학과 및 전형 정보와 개인정보 제공 동의 내용, 수능 최초합격자 통계 등에 중점을 두고 있습니다. 신소재공학부에 대한 정시 모집군이나 등급 기준은 해당하는 항목이 없습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보를 확인하거나, 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 447점의 표준 변환 점수가 작년에 비해 약간 낮게 환산되었다고 언급하고 있지만, 원문에서는 작년 신소재공학과의 평균 점수가 378.15점으로, 447점이 훨씬 높은 점수라고 명시하고 있습니다. 따라서, 이 부분에서 사실과 다소 일치하지 않는 점이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 447점으로 합격할 가능성이 있다고 언급하고 있지만, 원문에서는 447점이 작년 평균 점수보다 훨씬 높다고 명시하고 있습니다. 그러나 "약간 낮게 환산되었다"는 표현은 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 질문과 관련된 내용을 잘 다루고 있으며, 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 "약간 낮게 환산되었다"는 표현이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 447점이 합격 가능성이 있다고 언급하지만, 원문에서 제시된 평균 점수와의 비교가 정확하지 않습니다. 이로 인해 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받지만, 사실성과 정확성에서 다소 부족함이 있어 중간 정도의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 다만, 일부 표현에서 약간의 부정확성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.5940749042325433</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점의 표준 변환 점수가 작년에 비해 약간 낮게 환산된 것은 맞습니다. 하지만 동의대학교에서 정시 모집 시에는 여러 요소들이 고려됩니다. 예를 들어, 지원자의 서류 평가 결과, 면접 성적 등이 함께 반영되기 때문에 447점으로도 충분히 합격할 수 있는 가능성은 있습니다.
+특히, 작년에 비해 표준 변환 점수가 약간 낮아졌다고 해서 불합격 확정이라고 단정 짓는 것은 무리일 수 있습니다. 입학사정관들이 서류 평가와 면접에서 지원자의 전반적인 능력을 종합적으로 판단하기 때문입니다.
+따라서, 447점으로도 합격 가능성은 있으므로, 서류 제출 시에는 최선을 다해 작성하고, 면접에서는 자신감 있게 답변하는 것이 중요합니다. 또한, 입학사정관들이 어떤 기준을 가지고 평가를 진행할지에 대한 정보를 미리 파악하여 준비하는 것도 도움이 될 수 있습니다.
+더 자세한 정보나 추가적인 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시거나 입학처와 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 평균 성적과 지원 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나, "4.3 등급의 수능 점수가 정시 성적 산출 시 4.1~4.2 정도로 나오는 경우"라는 부분은 원본 텍스트에서 명확히 언급되지 않은 내용이므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "4.3 등급의 수능 점수가 정시 성적 산출 시 4.1~4.2 정도로 나오는 경우"라는 문구는 원본 텍스트의 내용과 다소 상충하는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 신소재공학부의 지원 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 일부 문장에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 특정 세부사항에서 약간의 부정확성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 다만, 일부 문구에서 약간의 의미 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.577324614735265</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 점수가 정시 성적 산출 시 4.1~4.2 정도로 나오는 경우, 신소재공학부 일반학생전형에 지원 가능성을 고려해볼 수 있습니다.
+신소재공학부 일반학생전형의 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이에 따라, 4.1~4.2 정도의 수능 점수가 나온다면, 해당 학과의 모집인원 및 경쟁률을 고려하여 지원 가능성을 판단해볼 수 있습니다.
+하지만, 신소재공학부는 경쟁률이 높은 학과 중 하나로 알려져 있어, 추가적인 요소들이 중요하게 작용할 수 있습니다. 예를 들어:
+- 학생부 종합 평가
+- 면접 성적
+따라서, 정확한 지원 가능성을 판단하기 위해서는:
+1. 해당 학과의 모집인원 및 경쟁률을 확인합니다.
+2. 자신의 학생부 내용이 어떻게 평가될지 예측합니다.
+3. 면접 준비를 포함하여 전반적인 지원 전략을 세웁니다.
+추가적으로, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 성적(국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 429.60, 영어 등급: 3.80, 수능 4개 영역 등급: 4.35)은 원본 텍스트의 평균 성적과 크게 다릅니다. 원본 텍스트의 평균 성적은 각각 301.87, 4.13, 4.98로, 생성된 응답은 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 제시된 성적이 원본의 평균 성적과 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 지원 성적에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 세부 사항이 부정확하여 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 성적 정보는 원본 텍스트의 사실과 크게 다르며, 이는 정확성에 큰 영향을 미칩니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호하지만, 사실성과 정확성에서 큰 문제를 보이고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 제공된 정보가 부정확하여 의미적으로 완전한 적절성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.791426725008488</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과로 수능 일반학생전형을 지원하는 경우, 평균적으로 다음과 같은 성적이 필요할 것으로 보입니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 429.60
+- 영어 등급: 3.80
+- 수능 4개 영역 등급: 4.35
+이러한 성적은 인공지능학과로의 지원에 대한 기초적인 요구를 충족시키는 것으로 보입니다. 하지만 최종 합격을 위해서는 경쟁률, 모집인원, 지원자들의 성적 분포 등을 고려해야 합니다.
+만약 더 자세한 정보나 추가적인 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경찰행정학과와 미래형자동차학과의 평균 성적을 언급하고 있지만, 이들 학과의 평균 성적이 실제로는 5.27 성적과 비교할 수 있는지에 대한 정보가 부족합니다. 또한, 미래형자동차학과는 원본 텍스트에 언급되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 경찰행정학과와 미래형자동차학과의 성적을 언급하면서도 원본 텍스트에서 제공된 학과 목록과는 다릅니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 정보를 제공하려고 하지만, 원본 텍스트에서 제시된 학과와 성적 정보를 충분히 반영하지 못하고 있습니다. 따라서 관련성은 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 원본 텍스트와의 연결이 부족하여 약간의 흐름이 끊기는 느낌이 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전체적으로 일관된 주제를 가지고 있지만, 원본 텍스트의 정보와 연결되지 않아 논리적인 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 정보는 원본 텍스트의 사실과 일치하지 않으며, 특히 미래형자동차학과에 대한 언급은 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6407067663270462</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 현재 제공된 데이터를 바탕으로 추정해보겠습니다.
+현재 데이터에서 가장 높은 수능 등급 평균은 인문사회과학대학의 경찰행정학과와 미래형자동차학과, 그리고 상경대학의 e비즈니스학과입니다. 이들 모집단위들의 수능 4개 영역 등급 평균이 다음과 같습니다:
+- 경찰행정학과: 4.28
+- 미래형자동차학과: 4.17
+- e비즈니스학과: 3.88
+5.27이라는 성적은 이들 중에서 가장 높은 수준의 성적입니다. 따라서, 5.27의 성적을 가지고 경찰행정학과나 미래형자동차학과에 충분히 경쟁력을 가질 수 있을 것으로 보입니다.
+하지만, 정확한 결과는 해당 대학의 모집단위별로 실제 지원자의 성적이 어떻게 분포되어 있는지에 따라 달라질 수 있으므로, 최종적인 확실성을 위해서는 해당 대학의 입학처 웹사이트나 전화 문의를 통해 확인하는 것이 좋습니다.
+더 자세한 정보가 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해보시거나, 직접 대학에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 지원자의 성적을 언급하며, 합격 가능성에 대한 여러 요소를 설명하고 있습니다. 그러나 평균 변환 점수 434.70점에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 변환 점수와 같은 추가 정보를 제공하여 일관성이 떨어질 수 있습니다. 경쟁률과 개인 성적 변동성에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로, 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어공학부의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 경쟁률과 개인 성적 변동성에 대한 설명도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 평균 변환 점수와 같은 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 평균 변환 점수에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성 점수가 다소 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 평균 변환 점수와 같은 추가 정보는 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.7041892811066987</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부에 대한 정보를 보면, 해당 학과는 수능 위주로 모집을 진행하며, 수능 점수 비중이 100%입니다. 또한, 평균 변환 점수가 434.70점으로, 지원자의 성적인 4.2에 해당하는 점수보다 높습니다.
+그러나 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. **경쟁률**: 동의대학교 소프트웨어공학부의 경쟁률이 매우 높기 때문에, 평균 변환 점수가 높은 지원자들이 많습니다.
+2. **개인 성적 변동성**: 지원자의 개인적인 성적이 변동될 수 있으며, 이는 합격 가능성에 영향을 줄 수 있습니다.
+따라서, 정확한 합격 가능성을 예측하기 위해서는 동의대학교 소프트웨어공학부의 최종 합격 점수를 확인하거나, 해당 대학의 입시 담당자에게 문의하는 것이 좋습니다. 더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 3.92의 성적이 좋은 성적이라는 점을 언급하고 있습니다. 그러나 수능 및 학생부 교과 성적 산출 방법에 대한 구체적인 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 정보가 추가되었지만 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 수능 및 학생부 교과 성적 산출 방법에 대한 추가적인 설명이 포함되어 있어 일관성이 다소 떨어질 수 있습니다. 원본 텍스트의 핵심 내용과는 일치하지만, 추가된 정보로 인해 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 3.92의 성적이 화학환경공학부 일반학생전형에 지원 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92의 성적이 좋은 성적이라는 점을 강조하고 있습니다. 그러나 수능 및 학생부 교과 성적 산출 방법에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 작성되었으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 추가로 인해 일관성과 정확성에서 약간의 손실이 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 추가된 정보가 원본 텍스트의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7444631378835413</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92의 성적이면, 화학환경공학부 일반학생전형에 지원이 가능한지 확인해보겠습니다.
+화학환경공학부 일반학생전형의 수능 및 학생부 교과 성적 산출방법을 살펴보겠습니다:
+1. **수능 성적 산출 방법**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급 점수 + 탐구 표준점수
+2. **학생부 교과 성적 산출 방법**:
+   - 학생부 교과 성적은 4개 영역(국어, 수학, 영어, 탐구) 중 상위 3개 영역의 표준점수 및 등급 점수를 합산한 점수 ÷ 2
+이 정보만으로는 정확히 판단하기 어렵습니다. 하지만 일반적으로 3.92의 성적은 좋은 성적입니다.
+**추가적인 정보 필요사항:**
+- 화학환경공학부 일반학생전형에 대한 수능 최저 기준 확인
+- 해당 학교에서 요구하는 학생부 교과 성적의 상위 영역을 포함한 점수
+이러한 정보를 바탕으로 판단해보겠습니다. 만약 추가적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 학교 관계자에게 문의하시는 것이 좋습니다.
+결론적으로 3.92의 성적은 화학환경공학부 일반학생전형에 지원 가능성이 높지만, 최종 결정을 내리기 위해서는 해당 전형의 수능 및 학생부 교과 성적 산출 방법과 최저 기준 등을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성을 판단하기 위한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트에서 제공된 구체적인 데이터와 비교할 때, 사실적 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 화학환경공학부에 대한 구체적인 합격 기준을 언급하지 않으므로 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 높다고 판단했으나, 생성된 응답은 이를 부정하는 방향으로 나아갑니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 데이터와 비교할 때 다소 일반적인 내용으로 흐르고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 무시하고 일반적인 조언을 제공하고 있어 정확성이 떨어집니다. 원본 텍스트의 데이터와 결론을 반영하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과 다소 어긋나는 부분이 있어 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7158018999321319</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능 여부를 정확히 판단하기 어렵습니다. 동의대학교 인문사회과학대학의 경우, 지원자의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수가 주요 평가 기준이지만, 화학환경공학부는 공과대학 계열에 속하므로 다른 학과와 비교하여 더 높은 수능 점수를 요구할 가능성이 있습니다.
+화학환경공학부의 경우, 정확한 합격 가능 여부를 판단하기 위해서는 해당 학과의 수능 최소합격 기준 점수나 평균 합격 점수 등을 확인해야 합니다. 제공된 정보에는 화학환경공학부에 대한 특정 합격 기준 점수가 포함되어 있지 않으므로, 동의대학교 홈페이지 또는 "https://ipsi. deu. ac. kr/main. do"를 통해 최신 합격 기준 점수 등을 확인하시기 바랍니다.
+또한, 수능 점수 외에도 지원자의 학업태도, 전공적합성 등 다양한 요소가 평가대상이므로, 전체적인 지원 자질을 고려하여 판단하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과의 평균 성적에 대한 정보를 제공하지만, 일부 수치가 원본 텍스트와 일치하지 않거나 정확하지 않습니다. 예를 들어, 영화학과의 평균 점수와 영어 등급에 대한 정보가 원본과 다르게 제시되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 바탕으로 하고 있지만, 제공된 데이터와의 일관성이 부족합니다. 특히, 평균 점수와 관련된 정보가 원본과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 합격 가능성에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 관련된 수치가 원본과 다르기 때문에 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 수치의 불일치로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.7012756381982942</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수를 가지고 영화학과에 지원하셨다면, 현재 제공된 데이터만으로는 확실한 결론을 내리기 어렵습니다. 하지만, 다음과 같은 정보들을 참고하실 수 있습니다.
+1. **영화학과의 경쟁률**: 2024학년도 모집단위에서 영화학과의 지원 인원은 11명이고, 모집 인원은 5명입니다. 이는 2.20의 경쟁률을 나타내며, 지원 인원이 많아 경쟁이 치열할 것으로 예상됩니다.
+2. **영화학과의 평균 점수**: 영화학과의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80입니다. 이는 지원자의 성적을 비교할 때 참고해야 할 수치입니다.
+3. **영화학과의 영어 등급**: 영화학과의 영어 등급의 평균은 3.00이며, 표준 편차가 0.89입니다. 이는 영어 능력에 대한 요구도를 나타냅니다.
+4. **학생부 교과 성적 평균**: 학생부 교과 성적 평균이 4.2정도라면, 영화학과의 평균 점수(303.80)보다 높은 수준입니다. 이는 좋은 성적을 보여주고 있습니다.
+5. **동점자 처리 기준**: 동점자가 발생할 경우, 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자 순으로 처리됩니다. 이는 학업 성적 외에도 다양한 요소가 고려되는 것을 의미합니다.
+따라서, 4.2라는 점수를 가지고 지원하셨다면, 좋은 성적이므로 합격 가능성은 높다고 볼 수 있습니다. 하지만, 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 결과는 입학처에서 발표될 때까지 기다려 보시는 것이 좋습니다.
+더 궁금하신 점이 있으시다면, "https://ipsi. deu. ac. kr/main. do"를 방문하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.916885889161986</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 지원자의 면접을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
